--- a/persian/reverso.xlsx
+++ b/persian/reverso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\spreadhseets\persian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2507267D-64C6-4EAA-9612-60ECB7CDD51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFBA8B1-11EA-4A47-A3FB-18584BC8FF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="714" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="contentType">JobInfo!$B$23:$B$37</definedName>
     <definedName name="country_standards">CriteriaDefinitions!#REF!</definedName>
     <definedName name="Design">CriteriaDefinitions!$G$49:$G$53</definedName>
-    <definedName name="errorCritera">ReviewEnvironment!$S$2:$S$12</definedName>
+    <definedName name="errorCritera">ReviewEnvironment!$S$2:$S$13</definedName>
     <definedName name="errorCriteria">CriteriaDefinitions!$B$49:$B$56</definedName>
     <definedName name="Fluency">CriteriaDefinitions!$D$49:$D$55</definedName>
     <definedName name="language">CriteriaDefinitions!$E$49:$E$52</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="479">
   <si>
     <t>Error Typology Benchmark</t>
   </si>
@@ -1511,9 +1511,6 @@
     <t>تک تک اینان می بایست اجرا میشد.</t>
   </si>
   <si>
-    <t>وكان ينبغي تنفيذ كل واحدة منها.</t>
-  </si>
-  <si>
     <t>مرد اول از خدا خانه، لباس و غذای بیشتری خواست.</t>
   </si>
   <si>
@@ -1535,9 +1532,6 @@
     <t>افراد معمولی هم میتوانند برند.</t>
   </si>
   <si>
-    <t>يمكن للأشخاص العاديين أيضًا الذهاب.</t>
-  </si>
-  <si>
     <t>رسید به سیصد تومن.</t>
   </si>
   <si>
@@ -1562,24 +1556,15 @@
     <t>سه روز دیگه برمیگردند.</t>
   </si>
   <si>
-    <t>وسوف يعودون في ثلاثة أيام.</t>
-  </si>
-  <si>
     <t>پول خوبی در میآورند میگوید اما زندگی اهمیت ندارد.</t>
   </si>
   <si>
-    <t>ويقول إنهم يكسبون أموالاً جيدة، لكن الحياة ليس لها أهمية.</t>
-  </si>
-  <si>
     <t>ما تو فرودگاه همراهش بودیم.</t>
   </si>
   <si>
     <t>تو هم توی سفارت این کشور نشستی.</t>
   </si>
   <si>
-    <t>لقد جلست أيضًا في سفارة هذا البلد.</t>
-  </si>
-  <si>
     <t>اینرا هم از کتابخانه گرفته بودم.</t>
   </si>
   <si>
@@ -1592,21 +1577,12 @@
     <t>من هم بهایی هستم.</t>
   </si>
   <si>
-    <t>وأنا بهائي أيضًا.</t>
-  </si>
-  <si>
     <t>بابا هم گفت عیب ندارد.</t>
   </si>
   <si>
-    <t>قال أبي أيضًا إنها ليست مشكلة.</t>
-  </si>
-  <si>
     <t>نادرشاه رهبران بزرگ شیعه و سنّی را گرد هم آورد.</t>
   </si>
   <si>
-    <t>لقد جمع نادر شاه كبار زعماء الشيعة والسنة معًا.</t>
-  </si>
-  <si>
     <t>جمعاً ۷۸ آسانسور در این دو ساختمان فعال هستند.</t>
   </si>
   <si>
@@ -1634,9 +1610,6 @@
     <t>هر زمان و مکانی در ایران که باشید موبایل شما راهنمایتان خواهد بود.</t>
   </si>
   <si>
-    <t>كلما وأينما كنت في إيران، سيكون هاتفك المحمول هو دليلك.</t>
-  </si>
-  <si>
     <t>پیرمرد کمی نوشابه خورد و همسرش نیز از همان لیوان کمی نوشید.</t>
   </si>
   <si>
@@ -1652,15 +1625,9 @@
     <t>دود سیگارش را توی صورت او فوت کرد.</t>
   </si>
   <si>
-    <t>ونفخت دخان السجائر في وجهه.</t>
-  </si>
-  <si>
     <t>این کشور دارای راه آبی به دریاهای آزاد نیست.</t>
   </si>
   <si>
-    <t>هذا البلد ليس لديه ممر مائي لفتح المياه.</t>
-  </si>
-  <si>
     <t>میتوانیم لیست بلند بالایی از داشتههامون تهیه کنیم.</t>
   </si>
   <si>
@@ -1668,9 +1635,6 @@
   </si>
   <si>
     <t>خرسهای کوالا یکی از کندترین حیوانات جهان هستند.</t>
-  </si>
-  <si>
-    <t>تعتبر دببة الكوالا واحدة من أبطأ الحيوانات في العالم.</t>
   </si>
   <si>
     <t>عاش الصبي بمفرده مع والده، وكانت هناك علاقة خاصة بين الاثنين.</t>
@@ -1705,40 +1669,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">يبدو أنها أكثر </t>
-    </r>
+    <t>لقد تغير رقم الهاتف هذا.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ازدحاما</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> من الأماكن الأخرى.</t>
-    </r>
-  </si>
-  <si>
-    <t>لقد تغير رقم الهاتف هذا.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>بيمان</t>
+      <t>الاتفاق</t>
     </r>
     <r>
       <rPr>
@@ -1751,26 +1692,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>الاتفاق</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> متعب.</t>
-    </r>
-  </si>
-  <si>
     <t>كم يوم في الأسبوع تمارس الرياضة ؟</t>
   </si>
   <si>
@@ -1788,17 +1709,172 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">أريد أن أتحدث مع </t>
+    <t>الجو بارد هنا.</t>
+  </si>
+  <si>
+    <t>لقد ترك العالم ألعابًا للأطفال.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">لقد ترك </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>مريم</t>
+      <t>العالم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ألعابًا للأطفال.</t>
+    </r>
+  </si>
+  <si>
+    <t>كنت في المستشفى لمدة أسبوع ؟</t>
+  </si>
+  <si>
+    <t>تقع العديد من فروعها أيضًا في لوس أنجلوس وشيكاغو.</t>
+  </si>
+  <si>
+    <t>لديه شقيقتان.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">كل يوم أسأل نفسي ما الذي فعلته </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>والذي أجابني</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">كل يوم </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أسأل</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> نفسي ما الذي فعلته والذي أجابني!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">هاجر العديد من </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>الأكراد الأتراك</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> إلى اسطنبول.</t>
+    </r>
+  </si>
+  <si>
+    <t>كان لا بد من أداء كل منهم.</t>
+  </si>
+  <si>
+    <t>طلب الرجل الأول من الله المزيد من المنازل والملابس والطعام.</t>
+  </si>
+  <si>
+    <t>اكتشف إسحاق نيوتن الجاذبية بسقوط تفاحة على رأسه.</t>
+  </si>
+  <si>
+    <t>يمكن للناس العاديين أيضًا.</t>
+  </si>
+  <si>
+    <t>لقد كانوا هنا منذ أكثر من خمس سنوات.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">وصل </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>الأمر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> إلى ثلاثمائة تومان.</t>
+    </r>
+  </si>
+  <si>
+    <t>بلغت ثلاثمائة تومان.</t>
+  </si>
+  <si>
+    <t>أنت لست جائعاً الآن</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أينما كنت في العالم، فهذا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>مفيد</t>
     </r>
     <r>
       <rPr>
@@ -1811,23 +1887,104 @@
     </r>
   </si>
   <si>
-    <t>الجو بارد هنا.</t>
-  </si>
-  <si>
-    <t>لقد ترك العالم ألعابًا للأطفال.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">تركت </t>
+    <t>هل وجدت عملاً ؟</t>
+  </si>
+  <si>
+    <t>وظفوا اثنين آخرين.</t>
+  </si>
+  <si>
+    <t>سيعودون بعد ثلاثة أيام.</t>
+  </si>
+  <si>
+    <t>إنهم يكسبون أموالاً جيدة، لكن الحياة لا تهم.</t>
+  </si>
+  <si>
+    <t>كنا معه في المطار.</t>
+  </si>
+  <si>
+    <t>أنت أيضا جالس في السفارة.</t>
+  </si>
+  <si>
+    <t>حصلت على هذا من المكتبة.</t>
+  </si>
+  <si>
+    <t>حرف های بسیاری هست که باید گفته شود.</t>
+  </si>
+  <si>
+    <t>هناك الكثير من الكلام الذي يجب أن يقال.</t>
+  </si>
+  <si>
+    <t>پدرش را سال ها قبل از دست داده بود.</t>
+  </si>
+  <si>
+    <t>كان قد فقد والده منذ سنوات.</t>
+  </si>
+  <si>
+    <t>در این مدت که همدیگر را ندیده ایم چه کتابی خوانده ای؟</t>
+  </si>
+  <si>
+    <t>في هذه الفترة التي لم نرى فيها بعضنا البعض، ما هي الكتب التي قرأتها؟</t>
+  </si>
+  <si>
+    <t>او در سال ۱۸۸۸ پسری به دنیا آورد.</t>
+  </si>
+  <si>
+    <t>أنجبت ولداً في عام 1888.</t>
+  </si>
+  <si>
+    <t>نظر شما در این مورد چیست؟</t>
+  </si>
+  <si>
+    <t>ما هو رأيك في هذا؟</t>
+  </si>
+  <si>
+    <t>خیلی از مردم دنباله کار اند.</t>
+  </si>
+  <si>
+    <t>كثير من الناس يبحثون عن عمل.</t>
+  </si>
+  <si>
+    <t>تنها در داخل درهها امکان سکونت و کشاورزی وجود دارد.</t>
+  </si>
+  <si>
+    <t>السكن والزراعة ممكنان فقط داخل الوديان.</t>
+  </si>
+  <si>
+    <t>متأسفانه همه چیز روسی نوشته شده.</t>
+  </si>
+  <si>
+    <t>پاکی از همه چیز مهمتر است!</t>
+  </si>
+  <si>
+    <t>النقاء هو أهم شيء!</t>
+  </si>
+  <si>
+    <t>به طور معمول بارندگی در این کشور کم است.</t>
+  </si>
+  <si>
+    <t>عادة ، هناك القليل من الأمطار في هذا البلد.</t>
+  </si>
+  <si>
+    <t>جاء المدرب إليه ببرقية.</t>
+  </si>
+  <si>
+    <t>أنا بهائي أيضاً</t>
+  </si>
+  <si>
+    <t>قال أبي إنه ليس لديه أخطاء.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">قال أبي إنه </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>دنيا</t>
+      <t>ليس لديه أخطاء</t>
     </r>
     <r>
       <rPr>
@@ -1836,12 +1993,459 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> ألعابها للأطفال.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>تركت دنيا ألعاب</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جمع نادر شاه بين القادة الشيعة العظماء </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>وسان فيلامنت</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>جمع نادر شاه كبار زعماء الشيعة والسنة معًا.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بشكل جماعي، ۷ ۷۸ المصاعد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> نشطة في المبنيين.</t>
+    </r>
+  </si>
+  <si>
+    <t>سارع نحو المدينة.</t>
+  </si>
+  <si>
+    <r>
+      <t>بدا عمر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">هم </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>حوالي 40 أو 45 عامًا.</t>
+    </r>
+  </si>
+  <si>
+    <t>أعطاني الرقم.</t>
+  </si>
+  <si>
+    <t>عندما تكون في إيران، سيكون هاتفك هو دليلك.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">شرب الرجل العجوز القليل من الصودا وشربت زوجته قليلاً من نفس </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>الزجاج</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">من بين تلك الكتب، أخذت كتابًا أبسط </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ولديه</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> كلمات ومصطلحات تقنية أقل نسبيًا.</t>
+    </r>
+  </si>
+  <si>
+    <t>لقد دخن دخان السجائر في وجهه</t>
+  </si>
+  <si>
+    <t>نفخت دخان سيجارتها في وجهه.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>لقد دخن</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> دخان </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>السجائر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في وجهه</t>
+    </r>
+  </si>
+  <si>
+    <t>هذا البلد لا يمتلك ممرا مائيا إلى المياه المفتوحة.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">يمكننا أن </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>نصنع</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> قائمة طويلة </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>خاصة بنا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>این داده ها را در یک محل واحد جمع کردند.</t>
+  </si>
+  <si>
+    <t>تعتبر دببة الكوالا من أبطأ الحيوانات في العالم.</t>
+  </si>
+  <si>
+    <t>لقد جمعوا البيانات في مكان واحد.</t>
+  </si>
+  <si>
+    <t>هناك العديد من الأشياء التي يجب أن تقال.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>لقد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> فقد والده منذ سنوات</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ما هو الكتاب الذي قرأته </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بينما</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> لم نر بعضنا البعض ؟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أنجب ابنًا في عام </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>۱۸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ما رأيك في هذا ؟</t>
+  </si>
+  <si>
+    <t>كثير من الناس يبحثون عن العمل.</t>
+  </si>
+  <si>
+    <t>فقط داخل الأخاديد توجد إمكانية للاستيطان والزراعة.</t>
+  </si>
+  <si>
+    <t>لسوء الحظ، كل شيء روسي.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>النظافة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> أهم من أي شيء آخر!</t>
+    </r>
+  </si>
+  <si>
+    <t>عادة ما يكون هطول الأمطار منخفضًا في هذا البلد.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بيمان متعب.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">يبدو أنها أكثر </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ازدحاما من الأماكن الأخرى.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أريد أن أتحدث مع </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>مريم.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>كل يوم كنت أسأل نفسي ماذا فعلت حتى ي</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>طردوني من العمل.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">كل يوم </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>كنت أسأل نفسي ماذا فعلت حتى يطردوني من العمل.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">قد هاجر العديد من </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أكراد تركيا إلى إسطنبول.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أينما كنت في العالم، </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>سيساعدك هذا.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">لقد حصلت على هذا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أيضًا من المكتبة.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">لسوء الحظ، كل شيء </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>مكتوب باللغة الروسية.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">تركت </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>دنيا ألعاب</t>
     </r>
     <r>
       <rPr>
@@ -1855,7 +2459,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1863,8 +2466,199 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">لقد ترك </t>
+    <t>كان ينبغي تنفيذ كل واحدة منها.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">يمكن للأشخاص العاديين أيضًا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>الذهاب</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ف</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t>أنت لست جائعا الآن</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">عادة أنت تتحدث الإنجليزية </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">أكثر </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بكثير</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> مني.</t>
+    </r>
+  </si>
+  <si>
+    <t>عادة ما تتحدث الإنجليزية أكثر مني</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">قاموا بتعيين شخصين آخرين </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أيضا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>سوف يعودون في ثلاثة أيام.</t>
+  </si>
+  <si>
+    <t>يقول إنهم يكسبون أموالاً جيدة، لكن الحياة ليس لها أهمية.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">لقد جلست أنت أيضًا في سفارة </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>هذا البلد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>أنا بهائي أيضًا.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">قال أبي </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أيضًا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> لا توجد مشكلة.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">كلما </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>وأينما</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> كنت في إيران، سيكون هاتفك المحمول هو دليلك.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>لا يوجد في البلاد ممر مائي</t>
     </r>
     <r>
       <rPr>
@@ -1873,62 +2667,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>العالم</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ألعابًا للأطفال.</t>
-    </r>
-  </si>
-  <si>
-    <t>كنت في المستشفى لمدة أسبوع ؟</t>
-  </si>
-  <si>
-    <t>تقع العديد من فروعها أيضًا في لوس أنجلوس وشيكاغو.</t>
-  </si>
-  <si>
-    <t>لديه شقيقتان.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">كل يوم أسأل نفسي ما الذي فعلته </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>والذي أجابني</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>كل يوم كنت أسأل نفسي ماذا فعلت حتى ي</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>طردوني من العمل</t>
+      <t xml:space="preserve"> إلى أعالي البحار</t>
     </r>
     <r>
       <rPr>
@@ -1942,34 +2681,29 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">دببة الكوالا هي </t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">كل يوم </t>
+      <t>واحدة</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>أسأل</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> نفسي ما الذي فعلته والذي أجابني!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">كل يوم </t>
+      <t xml:space="preserve"> من أبطأ الحيوانات في العالم.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جمعوا </t>
     </r>
     <r>
       <rPr>
@@ -1978,267 +2712,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>كنت أسأل</t>
+      <t>هذه</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="178"/>
       </rPr>
-      <t xml:space="preserve"> نفسي ماذا فعلت حتى يطردوني من العمل.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">هاجر العديد من </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>الأكراد الأتراك</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> إلى اسطنبول.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">قد هاجر العديد من </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>أكراد تركيا</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> إلى إسطنبول.</t>
-    </r>
-  </si>
-  <si>
-    <t>كان لا بد من أداء كل منهم.</t>
-  </si>
-  <si>
-    <t>طلب الرجل الأول من الله المزيد من المنازل والملابس والطعام.</t>
-  </si>
-  <si>
-    <t>اكتشف إسحاق نيوتن الجاذبية بسقوط تفاحة على رأسه.</t>
-  </si>
-  <si>
-    <t>يمكن للناس العاديين أيضًا.</t>
-  </si>
-  <si>
-    <t>لقد كانوا هنا منذ أكثر من خمس سنوات.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">وصل </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>الأمر</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> إلى ثلاثمائة تومان.</t>
-    </r>
-  </si>
-  <si>
-    <t>بلغت ثلاثمائة تومان.</t>
-  </si>
-  <si>
-    <t>أنت لست جائعاً الآن</t>
-  </si>
-  <si>
-    <t>فأنت لست جائعا الآن.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">أينما كنت في العالم، فهذا </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>مفيد</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">أينما كنت في العالم، </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>سيساعدك</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> هذا.</t>
-    </r>
-  </si>
-  <si>
-    <t>هل وجدت عملاً ؟</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">عادة ما تتحدث الإنجليزية </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>أكثر</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> مني</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">عادة أنت تتحدث الإنجليزية </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>أكثر بكثير</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> مني.</t>
-    </r>
-  </si>
-  <si>
-    <t>وظفوا اثنين آخرين.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">قاموا بتعيين شخصين آخرين </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>أيضا</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>سيعودون بعد ثلاثة أيام.</t>
-  </si>
-  <si>
-    <t>إنهم يكسبون أموالاً جيدة، لكن الحياة لا تهم.</t>
-  </si>
-  <si>
-    <t>كنا معه في المطار.</t>
-  </si>
-  <si>
-    <t>أنت أيضا جالس في السفارة.</t>
-  </si>
-  <si>
-    <t>حصلت على هذا من المكتبة.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">لقد حصلت على هذا </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>أيضًا</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> من المكتبة.</t>
+      <t xml:space="preserve"> البيانات في مكان واحد.</t>
     </r>
   </si>
 </sst>
@@ -2246,7 +2729,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2517,6 +3000,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2538,7 +3039,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -3480,32 +3981,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF003366"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFA2BD90"/>
       </left>
       <right style="thin">
@@ -3519,7 +3994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3846,22 +4321,40 @@
     <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4400,29 +4893,29 @@
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -5080,10 +5573,10 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="191"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="8" t="s">
@@ -5101,10 +5594,10 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="191"/>
+      <c r="B3" s="197"/>
       <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="14" t="s">
@@ -5122,18 +5615,18 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="196" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="191"/>
+      <c r="B4" s="197"/>
       <c r="C4" s="129"/>
-      <c r="E4" s="201" t="s">
+      <c r="E4" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="21"/>
       <c r="K4" s="170"/>
       <c r="L4" s="1"/>
@@ -5142,10 +5635,10 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="191"/>
+      <c r="B5" s="197"/>
       <c r="C5" s="129"/>
       <c r="D5" s="111"/>
       <c r="E5" s="169" t="s">
@@ -5444,11 +5937,11 @@
     </row>
     <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112"/>
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5486,16 +5979,16 @@
       <c r="C22" s="139" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="193" t="s">
+      <c r="D22" s="199" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="194"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="193" t="s">
+      <c r="E22" s="200"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="194"/>
-      <c r="I22" s="195"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="201"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -5511,14 +6004,14 @@
       <c r="C23" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="196" t="s">
+      <c r="D23" s="202" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="204"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="210"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -5534,14 +6027,14 @@
       <c r="C24" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="198" t="s">
+      <c r="D24" s="204" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="199"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="189"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -5558,9 +6051,9 @@
         <v>248</v>
       </c>
       <c r="F25" s="122"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="189"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="195"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -5577,9 +6070,9 @@
         <v>249</v>
       </c>
       <c r="F26" s="122"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="189"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="195"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -5596,9 +6089,9 @@
         <v>250</v>
       </c>
       <c r="F27" s="122"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="189"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="195"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -5615,9 +6108,9 @@
         <v>251</v>
       </c>
       <c r="F28" s="122"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="189"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="195"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5634,9 +6127,9 @@
         <v>252</v>
       </c>
       <c r="F29" s="122"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="189"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="195"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5653,9 +6146,9 @@
         <v>253</v>
       </c>
       <c r="F30" s="122"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="189"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5672,9 +6165,9 @@
         <v>254</v>
       </c>
       <c r="F31" s="122"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="189"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="195"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5691,9 +6184,9 @@
         <v>255</v>
       </c>
       <c r="F32" s="122"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="189"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="195"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5710,9 +6203,9 @@
         <v>256</v>
       </c>
       <c r="F33" s="122"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="189"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="195"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5729,9 +6222,9 @@
         <v>257</v>
       </c>
       <c r="F34" s="122"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="189"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="195"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5748,9 +6241,9 @@
         <v>258</v>
       </c>
       <c r="F35" s="122"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="195"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5767,9 +6260,9 @@
         <v>259</v>
       </c>
       <c r="F36" s="122"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="189"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="195"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5786,9 +6279,9 @@
         <v>260</v>
       </c>
       <c r="F37" s="122"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="200"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="206"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5934,24 +6427,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC107"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="5" width="31.85546875" customWidth="1"/>
+    <col min="3" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="189" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="11" max="11" width="0.5703125" style="122" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="122" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="13.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.28515625" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" customWidth="1"/>
@@ -5966,14 +6460,12 @@
       <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="183"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
       <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
@@ -6009,7 +6501,7 @@
       <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="184" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -6027,19 +6519,19 @@
       <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="176" t="s">
+      <c r="K2" s="122" t="s">
         <v>297</v>
       </c>
-      <c r="L2" s="177" t="s">
+      <c r="L2" s="122" t="s">
         <v>298</v>
       </c>
-      <c r="M2" s="213" t="s">
+      <c r="M2" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="215"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="221"/>
       <c r="R2" s="17"/>
       <c r="S2" s="125" t="s">
         <v>33</v>
@@ -6059,14 +6551,16 @@
       <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="180"/>
+      <c r="B3" s="176">
+        <v>1</v>
+      </c>
       <c r="C3" s="27" t="s">
         <v>299</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="185" t="s">
         <v>300</v>
       </c>
       <c r="F3" s="28"/>
@@ -6074,18 +6568,17 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="50"/>
-      <c r="K3" s="178" t="str">
-        <f t="shared" ref="K3:K68" si="0">CONCATENATE(F3,I3)</f>
+      <c r="K3" s="122" t="str">
+        <f t="shared" ref="K3:K73" si="0">CONCATENATE(F3,I3)</f>
         <v/>
       </c>
-      <c r="L3" s="179"/>
-      <c r="M3" s="206" t="s">
+      <c r="M3" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="208"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="214"/>
       <c r="R3" s="17"/>
       <c r="S3" s="160" t="s">
         <v>273</v>
@@ -6102,19 +6595,20 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
-        <f t="shared" ref="A4:A69" si="1">A3+1</f>
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
+      <c r="B4" s="176">
+        <v>2</v>
+      </c>
       <c r="C4" s="78" t="s">
         <v>301</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>390</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>389</v>
+        <v>376</v>
+      </c>
+      <c r="E4" s="186" t="s">
+        <v>454</v>
       </c>
       <c r="F4" s="79" t="s">
         <v>83</v>
@@ -6127,18 +6621,17 @@
         <v>291</v>
       </c>
       <c r="J4" s="85"/>
-      <c r="K4" s="178" t="str">
+      <c r="K4" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="206" t="s">
+      <c r="M4" s="212" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="208"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="214"/>
       <c r="R4" s="17"/>
       <c r="S4" s="18" t="s">
         <v>50</v>
@@ -6155,18 +6648,19 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
-        <f t="shared" si="1"/>
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="181"/>
+      <c r="B5" s="176">
+        <v>3</v>
+      </c>
       <c r="C5" s="78" t="s">
         <v>302</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="186" t="s">
         <v>303</v>
       </c>
       <c r="F5" s="79"/>
@@ -6174,18 +6668,17 @@
       <c r="H5" s="79"/>
       <c r="I5" s="79"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="178" t="str">
+      <c r="K5" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L5" s="179"/>
-      <c r="M5" s="206" t="s">
+      <c r="M5" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="207"/>
-      <c r="Q5" s="208"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="214"/>
       <c r="R5" s="88"/>
       <c r="S5" s="18" t="s">
         <v>97</v>
@@ -6202,37 +6695,43 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
-        <f t="shared" si="1"/>
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="181"/>
+      <c r="B6" s="176">
+        <v>4</v>
+      </c>
       <c r="C6" s="78" t="s">
         <v>304</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>384</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>385</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
+        <v>372</v>
+      </c>
+      <c r="E6" s="186" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>140</v>
+      </c>
       <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="I6" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J6" s="85"/>
-      <c r="K6" s="178" t="str">
+      <c r="K6" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L6" s="179"/>
-      <c r="M6" s="206" t="s">
+        <v>FluencyMinor</v>
+      </c>
+      <c r="M6" s="212" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="208"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="213"/>
+      <c r="P6" s="213"/>
+      <c r="Q6" s="214"/>
       <c r="R6" s="1"/>
       <c r="S6" s="160" t="s">
         <v>275</v>
@@ -6249,19 +6748,20 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
-        <f t="shared" si="1"/>
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="181"/>
+      <c r="B7" s="176">
+        <v>5</v>
+      </c>
       <c r="C7" s="78" t="s">
         <v>305</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>386</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>387</v>
+        <v>374</v>
+      </c>
+      <c r="E7" s="186" t="s">
+        <v>455</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>83</v>
@@ -6274,16 +6774,15 @@
         <v>291</v>
       </c>
       <c r="J7" s="85"/>
-      <c r="K7" s="178" t="str">
+      <c r="K7" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L7" s="179"/>
-      <c r="M7" s="209"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="208"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="214"/>
       <c r="R7" s="88"/>
       <c r="S7" s="160" t="s">
         <v>276</v>
@@ -6300,18 +6799,19 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
-        <f t="shared" si="1"/>
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="181"/>
+      <c r="B8" s="176">
+        <v>6</v>
+      </c>
       <c r="C8" s="78" t="s">
         <v>306</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>388</v>
-      </c>
-      <c r="E8" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="186" t="s">
         <v>307</v>
       </c>
       <c r="F8" s="79"/>
@@ -6319,18 +6819,17 @@
       <c r="H8" s="79"/>
       <c r="I8" s="79"/>
       <c r="J8" s="85"/>
-      <c r="K8" s="178" t="str">
+      <c r="K8" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="179"/>
-      <c r="M8" s="206" t="s">
+      <c r="M8" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="207"/>
-      <c r="Q8" s="208"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
+      <c r="P8" s="213"/>
+      <c r="Q8" s="214"/>
       <c r="R8" s="88"/>
       <c r="S8" s="160" t="s">
         <v>277</v>
@@ -6347,18 +6846,19 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
-        <f t="shared" si="1"/>
+      <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="176">
+        <v>7</v>
+      </c>
       <c r="C9" s="78" t="s">
         <v>308</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>391</v>
-      </c>
-      <c r="E9" s="78" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="186" t="s">
         <v>309</v>
       </c>
       <c r="F9" s="79"/>
@@ -6366,16 +6866,15 @@
       <c r="H9" s="79"/>
       <c r="I9" s="79"/>
       <c r="J9" s="85"/>
-      <c r="K9" s="178" t="str">
+      <c r="K9" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L9" s="179"/>
-      <c r="M9" s="209"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="208"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="213"/>
+      <c r="P9" s="213"/>
+      <c r="Q9" s="214"/>
       <c r="R9" s="1"/>
       <c r="S9" s="161" t="s">
         <v>109</v>
@@ -6392,19 +6891,20 @@
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
-        <f t="shared" si="1"/>
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="181"/>
+      <c r="B10" s="176">
+        <v>8</v>
+      </c>
       <c r="C10" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="78" t="s">
-        <v>392</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>393</v>
+      <c r="D10" s="182" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" s="186" t="s">
+        <v>456</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>83</v>
@@ -6417,18 +6917,17 @@
         <v>291</v>
       </c>
       <c r="J10" s="85"/>
-      <c r="K10" s="178" t="str">
+      <c r="K10" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L10" s="179"/>
-      <c r="M10" s="206" t="s">
+      <c r="M10" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="207"/>
-      <c r="O10" s="207"/>
-      <c r="P10" s="207"/>
-      <c r="Q10" s="208"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="213"/>
+      <c r="P10" s="213"/>
+      <c r="Q10" s="214"/>
       <c r="R10" s="17"/>
       <c r="S10" s="21"/>
       <c r="T10" s="1"/>
@@ -6443,35 +6942,33 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
-        <f t="shared" si="1"/>
+      <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="78" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>394</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="176">
+        <v>8</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="182" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" s="186"/>
+      <c r="F11" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>140</v>
+      </c>
       <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="I11" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J11" s="85"/>
-      <c r="K11" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="179"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="207"/>
-      <c r="O11" s="207"/>
-      <c r="P11" s="207"/>
-      <c r="Q11" s="208"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="213"/>
+      <c r="Q11" s="214"/>
       <c r="R11" s="17"/>
       <c r="S11" s="21"/>
       <c r="T11" s="1"/>
@@ -6485,45 +6982,43 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
-        <f t="shared" si="1"/>
+    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="181"/>
+      <c r="B12" s="176">
+        <v>9</v>
+      </c>
       <c r="C12" s="78" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>396</v>
+        <v>379</v>
+      </c>
+      <c r="E12" s="186" t="s">
+        <v>312</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>83</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="79"/>
       <c r="I12" s="79" t="s">
         <v>291</v>
       </c>
       <c r="J12" s="85"/>
-      <c r="K12" s="178" t="str">
+      <c r="K12" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L12" s="179"/>
-      <c r="M12" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="207"/>
-      <c r="O12" s="207"/>
-      <c r="P12" s="207"/>
-      <c r="Q12" s="208"/>
-      <c r="R12" s="88"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
+      <c r="P12" s="213"/>
+      <c r="Q12" s="214"/>
+      <c r="R12" s="17"/>
       <c r="S12" s="21"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -6536,15 +7031,21 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="78"/>
+    <row r="13" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="176">
+        <v>10</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>313</v>
+      </c>
       <c r="D13" s="78" t="s">
-        <v>395</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>397</v>
+        <v>381</v>
+      </c>
+      <c r="E13" s="186" t="s">
+        <v>463</v>
       </c>
       <c r="F13" s="79" t="s">
         <v>83</v>
@@ -6554,16 +7055,20 @@
       </c>
       <c r="H13" s="79"/>
       <c r="I13" s="79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J13" s="85"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="206"/>
-      <c r="N13" s="207"/>
-      <c r="O13" s="207"/>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="208"/>
+      <c r="K13" s="122" t="str">
+        <f t="shared" si="0"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M13" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="213"/>
+      <c r="O13" s="213"/>
+      <c r="P13" s="213"/>
+      <c r="Q13" s="214"/>
       <c r="R13" s="88"/>
       <c r="S13" s="21"/>
       <c r="T13" s="1"/>
@@ -6578,37 +7083,35 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
-        <f>A12+1</f>
-        <v>11</v>
-      </c>
-      <c r="B14" s="181"/>
-      <c r="C14" s="78" t="s">
-        <v>314</v>
-      </c>
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="176">
+        <v>10</v>
+      </c>
+      <c r="C14" s="78"/>
       <c r="D14" s="78" t="s">
-        <v>315</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>315</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
+        <v>380</v>
+      </c>
+      <c r="E14" s="186"/>
+      <c r="F14" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="I14" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J14" s="85"/>
-      <c r="K14" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L14" s="179"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="211"/>
-      <c r="O14" s="211"/>
-      <c r="P14" s="211"/>
-      <c r="Q14" s="212"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="213"/>
+      <c r="P14" s="213"/>
+      <c r="Q14" s="214"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="21"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -6621,35 +7124,35 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="181"/>
+      <c r="A15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="176">
+        <v>11</v>
+      </c>
       <c r="C15" s="78" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>399</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="E15" s="186" t="s">
+        <v>315</v>
       </c>
       <c r="F15" s="79"/>
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
       <c r="I15" s="79"/>
       <c r="J15" s="85"/>
-      <c r="K15" s="178" t="str">
+      <c r="K15" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L15" s="179"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="M15" s="216"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="218"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6663,31 +7166,31 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="181"/>
+    <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="176">
+        <v>12</v>
+      </c>
       <c r="C16" s="78" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>400</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>319</v>
+        <v>382</v>
+      </c>
+      <c r="E16" s="186" t="s">
+        <v>317</v>
       </c>
       <c r="F16" s="79"/>
       <c r="G16" s="79"/>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
       <c r="J16" s="85"/>
-      <c r="K16" s="178" t="str">
+      <c r="K16" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="179"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -6706,31 +7209,31 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="181"/>
+    <row r="17" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="176">
+        <v>13</v>
+      </c>
       <c r="C17" s="78" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>321</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>321</v>
+        <v>383</v>
+      </c>
+      <c r="E17" s="186" t="s">
+        <v>319</v>
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="79"/>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
       <c r="J17" s="85"/>
-      <c r="K17" s="178" t="str">
+      <c r="K17" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L17" s="179"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -6750,30 +7253,30 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="181"/>
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="176">
+        <v>14</v>
+      </c>
       <c r="C18" s="78" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="E18" s="186" t="s">
+        <v>321</v>
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="79"/>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
       <c r="J18" s="85"/>
-      <c r="K18" s="178" t="str">
+      <c r="K18" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L18" s="179"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -6793,30 +7296,30 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="181"/>
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="176">
+        <v>15</v>
+      </c>
       <c r="C19" s="78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>401</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+      <c r="E19" s="186" t="s">
+        <v>323</v>
       </c>
       <c r="F19" s="79"/>
       <c r="G19" s="79"/>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
       <c r="J19" s="85"/>
-      <c r="K19" s="178" t="str">
+      <c r="K19" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L19" s="179"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -6835,37 +7338,31 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="181"/>
+    <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="176">
+        <v>16</v>
+      </c>
       <c r="C20" s="78" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>403</v>
-      </c>
-      <c r="F20" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="79" t="s">
-        <v>121</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="E20" s="186" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="79"/>
-      <c r="I20" s="79" t="s">
-        <v>291</v>
-      </c>
+      <c r="I20" s="79"/>
       <c r="J20" s="85"/>
-      <c r="K20" s="178" t="str">
+      <c r="K20" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMajor</v>
-      </c>
-      <c r="L20" s="179"/>
+        <v/>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -6885,14 +7382,20 @@
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="78"/>
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="176">
+        <v>17</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>326</v>
+      </c>
       <c r="D21" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="E21" s="182" t="s">
-        <v>405</v>
+        <v>385</v>
+      </c>
+      <c r="E21" s="186" t="s">
+        <v>457</v>
       </c>
       <c r="F21" s="79" t="s">
         <v>83</v>
@@ -6902,11 +7405,13 @@
       </c>
       <c r="H21" s="79"/>
       <c r="I21" s="79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J21" s="85"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="179"/>
+      <c r="K21" s="122" t="str">
+        <f t="shared" si="0"/>
+        <v>AccuracyMajor</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -6926,19 +7431,18 @@
       <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="70">
-        <f>A20+1</f>
-        <v>18</v>
-      </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="78" t="s">
-        <v>327</v>
-      </c>
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="176">
+        <v>17</v>
+      </c>
+      <c r="C22" s="78"/>
       <c r="D22" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>407</v>
+        <v>386</v>
+      </c>
+      <c r="E22" s="186" t="s">
+        <v>458</v>
       </c>
       <c r="F22" s="79" t="s">
         <v>83</v>
@@ -6951,11 +7455,6 @@
         <v>291</v>
       </c>
       <c r="J22" s="85"/>
-      <c r="K22" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v>AccuracyMajor</v>
-      </c>
-      <c r="L22" s="179"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -6974,31 +7473,37 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="181"/>
+    <row r="23" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="176">
+        <v>18</v>
+      </c>
       <c r="C23" s="78" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>408</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+        <v>387</v>
+      </c>
+      <c r="E23" s="186" t="s">
+        <v>459</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
+      <c r="I23" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J23" s="85"/>
-      <c r="K23" s="178" t="str">
+      <c r="K23" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L23" s="179"/>
+        <v>AccuracyMajor</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -7017,31 +7522,31 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="181"/>
+    <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="176">
+        <v>19</v>
+      </c>
       <c r="C24" s="78" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>409</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>331</v>
+        <v>388</v>
+      </c>
+      <c r="E24" s="186" t="s">
+        <v>464</v>
       </c>
       <c r="F24" s="79"/>
       <c r="G24" s="79"/>
       <c r="H24" s="79"/>
       <c r="I24" s="79"/>
       <c r="J24" s="85"/>
-      <c r="K24" s="178" t="str">
+      <c r="K24" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L24" s="179"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -7061,30 +7566,30 @@
       <c r="AC24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="181"/>
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="176">
+        <v>20</v>
+      </c>
       <c r="C25" s="78" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>410</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>333</v>
+        <v>389</v>
+      </c>
+      <c r="E25" s="186" t="s">
+        <v>330</v>
       </c>
       <c r="F25" s="79"/>
       <c r="G25" s="79"/>
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
       <c r="J25" s="85"/>
-      <c r="K25" s="178" t="str">
+      <c r="K25" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="179"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -7104,30 +7609,30 @@
       <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="70">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="181"/>
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" s="176">
+        <v>21</v>
+      </c>
       <c r="C26" s="78" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>412</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>335</v>
+        <v>390</v>
+      </c>
+      <c r="E26" s="186" t="s">
+        <v>332</v>
       </c>
       <c r="F26" s="79"/>
       <c r="G26" s="79"/>
       <c r="H26" s="79"/>
       <c r="I26" s="79"/>
       <c r="J26" s="85"/>
-      <c r="K26" s="178" t="str">
+      <c r="K26" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L26" s="179"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -7146,37 +7651,31 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="181"/>
+    <row r="27" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>25</v>
+      </c>
+      <c r="B27" s="176">
+        <v>22</v>
+      </c>
       <c r="C27" s="78" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D27" s="78" t="s">
-        <v>411</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="F27" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="79" t="s">
-        <v>120</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="E27" s="186" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="79"/>
-      <c r="I27" s="79" t="s">
-        <v>291</v>
-      </c>
+      <c r="I27" s="79"/>
       <c r="J27" s="85"/>
-      <c r="K27" s="178" t="str">
+      <c r="K27" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMajor</v>
-      </c>
-      <c r="L27" s="179"/>
+        <v/>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -7196,47 +7695,43 @@
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="181"/>
+      <c r="A28" s="20">
+        <v>26</v>
+      </c>
+      <c r="B28" s="176">
+        <v>23</v>
+      </c>
       <c r="C28" s="78" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>414</v>
+        <v>391</v>
+      </c>
+      <c r="E28" s="186" t="s">
+        <v>465</v>
       </c>
       <c r="F28" s="79" t="s">
         <v>83</v>
       </c>
       <c r="G28" s="79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H28" s="79"/>
       <c r="I28" s="79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J28" s="85"/>
-      <c r="K28" s="178" t="str">
+      <c r="K28" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
-      </c>
-      <c r="L28" s="179"/>
-      <c r="M28" s="206" t="s">
-        <v>95</v>
-      </c>
-      <c r="N28" s="207"/>
-      <c r="O28" s="207"/>
-      <c r="P28" s="207"/>
-      <c r="Q28" s="208"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="18" t="s">
-        <v>50</v>
-      </c>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -7249,40 +7744,46 @@
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="181"/>
+      <c r="A29" s="20">
+        <v>27</v>
+      </c>
+      <c r="B29" s="176">
+        <v>24</v>
+      </c>
       <c r="C29" s="78" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>415</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>416</v>
-      </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
+        <v>393</v>
+      </c>
+      <c r="E29" s="186" t="s">
+        <v>394</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="79" t="s">
+        <v>119</v>
+      </c>
       <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
+      <c r="I29" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J29" s="85"/>
-      <c r="K29" s="178" t="str">
+      <c r="K29" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L29" s="179"/>
-      <c r="M29" s="206" t="s">
-        <v>96</v>
-      </c>
-      <c r="N29" s="207"/>
-      <c r="O29" s="207"/>
-      <c r="P29" s="207"/>
-      <c r="Q29" s="208"/>
-      <c r="R29" s="88"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M29" s="212" t="s">
+        <v>95</v>
+      </c>
+      <c r="N29" s="213"/>
+      <c r="O29" s="213"/>
+      <c r="P29" s="213"/>
+      <c r="Q29" s="214"/>
+      <c r="R29" s="17"/>
       <c r="S29" s="18" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -7295,20 +7796,21 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="181"/>
+    <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>28</v>
+      </c>
+      <c r="B30" s="176">
+        <v>25</v>
+      </c>
       <c r="C30" s="78" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>417</v>
-      </c>
-      <c r="E30" s="78" t="s">
-        <v>418</v>
+        <v>395</v>
+      </c>
+      <c r="E30" s="177" t="s">
+        <v>466</v>
       </c>
       <c r="F30" s="79" t="s">
         <v>83</v>
@@ -7321,21 +7823,20 @@
         <v>294</v>
       </c>
       <c r="J30" s="85"/>
-      <c r="K30" s="178" t="str">
+      <c r="K30" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMinor</v>
       </c>
-      <c r="L30" s="179"/>
-      <c r="M30" s="206" t="s">
-        <v>99</v>
-      </c>
-      <c r="N30" s="207"/>
-      <c r="O30" s="207"/>
-      <c r="P30" s="207"/>
-      <c r="Q30" s="208"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="160" t="s">
-        <v>275</v>
+      <c r="M30" s="212" t="s">
+        <v>96</v>
+      </c>
+      <c r="N30" s="213"/>
+      <c r="O30" s="213"/>
+      <c r="P30" s="213"/>
+      <c r="Q30" s="214"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -7349,39 +7850,35 @@
       <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="181"/>
-      <c r="C31" s="78" t="s">
-        <v>341</v>
-      </c>
+      <c r="A31" s="20">
+        <v>29</v>
+      </c>
+      <c r="B31" s="176">
+        <v>25</v>
+      </c>
+      <c r="C31" s="78"/>
       <c r="D31" s="78" t="s">
-        <v>419</v>
-      </c>
-      <c r="E31" s="78" t="s">
-        <v>342</v>
-      </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
+        <v>395</v>
+      </c>
+      <c r="E31" s="186"/>
+      <c r="F31" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="79" t="s">
+        <v>140</v>
+      </c>
       <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
+      <c r="I31" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J31" s="85"/>
-      <c r="K31" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L31" s="179"/>
-      <c r="M31" s="209"/>
-      <c r="N31" s="207"/>
-      <c r="O31" s="207"/>
-      <c r="P31" s="207"/>
-      <c r="Q31" s="208"/>
+      <c r="M31" s="179"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="180"/>
+      <c r="Q31" s="181"/>
       <c r="R31" s="88"/>
-      <c r="S31" s="160" t="s">
-        <v>276</v>
-      </c>
+      <c r="S31" s="18"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -7394,19 +7891,20 @@
       <c r="AC31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="181"/>
+      <c r="A32" s="20">
+        <v>30</v>
+      </c>
+      <c r="B32" s="176">
+        <v>26</v>
+      </c>
       <c r="C32" s="78" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>420</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>421</v>
+        <v>396</v>
+      </c>
+      <c r="E32" s="186" t="s">
+        <v>460</v>
       </c>
       <c r="F32" s="79" t="s">
         <v>83</v>
@@ -7419,21 +7917,20 @@
         <v>294</v>
       </c>
       <c r="J32" s="85"/>
-      <c r="K32" s="178" t="str">
+      <c r="K32" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMinor</v>
       </c>
-      <c r="L32" s="179"/>
-      <c r="M32" s="206" t="s">
-        <v>100</v>
-      </c>
-      <c r="N32" s="207"/>
-      <c r="O32" s="207"/>
-      <c r="P32" s="207"/>
-      <c r="Q32" s="208"/>
-      <c r="R32" s="88"/>
+      <c r="M32" s="212" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="213"/>
+      <c r="O32" s="213"/>
+      <c r="P32" s="213"/>
+      <c r="Q32" s="214"/>
+      <c r="R32" s="1"/>
       <c r="S32" s="160" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -7447,44 +7944,38 @@
       <c r="AC32" s="1"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="181"/>
+      <c r="A33" s="20">
+        <v>31</v>
+      </c>
+      <c r="B33" s="176">
+        <v>27</v>
+      </c>
       <c r="C33" s="78" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>423</v>
-      </c>
-      <c r="F33" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="79" t="s">
-        <v>120</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="E33" s="186" t="s">
+        <v>340</v>
+      </c>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="79"/>
-      <c r="I33" s="79" t="s">
-        <v>294</v>
-      </c>
+      <c r="I33" s="79"/>
       <c r="J33" s="85"/>
-      <c r="K33" s="178" t="str">
+      <c r="K33" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
-      </c>
-      <c r="L33" s="179"/>
-      <c r="M33" s="209"/>
-      <c r="N33" s="207"/>
-      <c r="O33" s="207"/>
-      <c r="P33" s="207"/>
-      <c r="Q33" s="208"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="161" t="s">
-        <v>109</v>
+        <v/>
+      </c>
+      <c r="M33" s="215"/>
+      <c r="N33" s="213"/>
+      <c r="O33" s="213"/>
+      <c r="P33" s="213"/>
+      <c r="Q33" s="214"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="160" t="s">
+        <v>276</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -7497,40 +7988,48 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="181"/>
+    <row r="34" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>32</v>
+      </c>
+      <c r="B34" s="176">
+        <v>28</v>
+      </c>
       <c r="C34" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>424</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>346</v>
-      </c>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
+        <v>341</v>
+      </c>
+      <c r="D34" s="177" t="s">
+        <v>468</v>
+      </c>
+      <c r="E34" s="186" t="s">
+        <v>467</v>
+      </c>
+      <c r="F34" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
+      <c r="I34" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J34" s="85"/>
-      <c r="K34" s="178" t="str">
+      <c r="K34" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L34" s="179"/>
-      <c r="M34" s="206" t="s">
-        <v>104</v>
-      </c>
-      <c r="N34" s="207"/>
-      <c r="O34" s="207"/>
-      <c r="P34" s="207"/>
-      <c r="Q34" s="208"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="21"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="M34" s="212" t="s">
+        <v>100</v>
+      </c>
+      <c r="N34" s="213"/>
+      <c r="O34" s="213"/>
+      <c r="P34" s="213"/>
+      <c r="Q34" s="214"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="160" t="s">
+        <v>277</v>
+      </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -7542,38 +8041,36 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B35" s="181"/>
-      <c r="C35" s="78" t="s">
-        <v>347</v>
-      </c>
-      <c r="D35" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
+    <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>33</v>
+      </c>
+      <c r="B35" s="176">
+        <v>28</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="177" t="s">
+        <v>468</v>
+      </c>
+      <c r="E35" s="186"/>
+      <c r="F35" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="79" t="s">
+        <v>140</v>
+      </c>
       <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
+      <c r="I35" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J35" s="85"/>
-      <c r="K35" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L35" s="179"/>
-      <c r="M35" s="209"/>
-      <c r="N35" s="207"/>
-      <c r="O35" s="207"/>
-      <c r="P35" s="207"/>
-      <c r="Q35" s="208"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="21"/>
+      <c r="M35" s="212"/>
+      <c r="N35" s="213"/>
+      <c r="O35" s="213"/>
+      <c r="P35" s="213"/>
+      <c r="Q35" s="214"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="160"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -7586,36 +8083,45 @@
       <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="181"/>
+      <c r="A36" s="20">
+        <v>34</v>
+      </c>
+      <c r="B36" s="176">
+        <v>29</v>
+      </c>
       <c r="C36" s="78" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
+        <v>398</v>
+      </c>
+      <c r="E36" s="186" t="s">
+        <v>469</v>
+      </c>
+      <c r="F36" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
+      <c r="I36" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J36" s="85"/>
-      <c r="K36" s="178" t="str">
+      <c r="K36" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L36" s="179"/>
-      <c r="M36" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="N36" s="207"/>
-      <c r="O36" s="207"/>
-      <c r="P36" s="207"/>
-      <c r="Q36" s="208"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="21"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="M36" s="215"/>
+      <c r="N36" s="213"/>
+      <c r="O36" s="213"/>
+      <c r="P36" s="213"/>
+      <c r="Q36" s="214"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="161" t="s">
+        <v>109</v>
+      </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -7628,37 +8134,39 @@
       <c r="AC36" s="1"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B37" s="181"/>
+      <c r="A37" s="20">
+        <v>35</v>
+      </c>
+      <c r="B37" s="176">
+        <v>30</v>
+      </c>
       <c r="C37" s="78" t="s">
-        <v>350</v>
-      </c>
-      <c r="D37" s="183" t="s">
-        <v>427</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>351</v>
+        <v>343</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E37" s="186" t="s">
+        <v>470</v>
       </c>
       <c r="F37" s="79"/>
       <c r="G37" s="79"/>
       <c r="H37" s="79"/>
       <c r="I37" s="79"/>
       <c r="J37" s="85"/>
-      <c r="K37" s="178" t="str">
+      <c r="K37" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L37" s="179"/>
-      <c r="M37" s="210"/>
-      <c r="N37" s="211"/>
-      <c r="O37" s="211"/>
-      <c r="P37" s="211"/>
-      <c r="Q37" s="212"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
+      <c r="M37" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="N37" s="213"/>
+      <c r="O37" s="213"/>
+      <c r="P37" s="213"/>
+      <c r="Q37" s="214"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="21"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -7670,44 +8178,38 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B38" s="181"/>
+    <row r="38" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>36</v>
+      </c>
+      <c r="B38" s="176">
+        <v>31</v>
+      </c>
       <c r="C38" s="78" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D38" s="78" t="s">
-        <v>428</v>
-      </c>
-      <c r="E38" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="F38" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="79" t="s">
-        <v>120</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="E38" s="186" t="s">
+        <v>471</v>
+      </c>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
       <c r="H38" s="79"/>
-      <c r="I38" s="79" t="s">
-        <v>294</v>
-      </c>
+      <c r="I38" s="79"/>
       <c r="J38" s="85"/>
-      <c r="K38" s="178" t="str">
+      <c r="K38" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
-      </c>
-      <c r="L38" s="179"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
+        <v/>
+      </c>
+      <c r="M38" s="215"/>
+      <c r="N38" s="213"/>
+      <c r="O38" s="213"/>
+      <c r="P38" s="213"/>
+      <c r="Q38" s="214"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="21"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -7720,35 +8222,39 @@
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B39" s="181"/>
+      <c r="A39" s="20">
+        <v>37</v>
+      </c>
+      <c r="B39" s="176">
+        <v>32</v>
+      </c>
       <c r="C39" s="78" t="s">
-        <v>353</v>
-      </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78" t="s">
-        <v>354</v>
+        <v>345</v>
+      </c>
+      <c r="D39" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="E39" s="186" t="s">
+        <v>401</v>
       </c>
       <c r="F39" s="79"/>
       <c r="G39" s="79"/>
       <c r="H39" s="79"/>
       <c r="I39" s="79"/>
       <c r="J39" s="85"/>
-      <c r="K39" s="178" t="str">
+      <c r="K39" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L39" s="179"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
+      <c r="M39" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="213"/>
+      <c r="O39" s="213"/>
+      <c r="P39" s="213"/>
+      <c r="Q39" s="214"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="21"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -7760,34 +8266,42 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B40" s="181"/>
+    <row r="40" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>38</v>
+      </c>
+      <c r="B40" s="176">
+        <v>33</v>
+      </c>
       <c r="C40" s="78" t="s">
-        <v>355</v>
-      </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78" t="s">
-        <v>356</v>
-      </c>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
+        <v>346</v>
+      </c>
+      <c r="D40" s="178" t="s">
+        <v>402</v>
+      </c>
+      <c r="E40" s="186" t="s">
+        <v>472</v>
+      </c>
+      <c r="F40" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
+      <c r="I40" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J40" s="85"/>
-      <c r="K40" s="178" t="str">
+      <c r="K40" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L40" s="179"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M40" s="216"/>
+      <c r="N40" s="217"/>
+      <c r="O40" s="217"/>
+      <c r="P40" s="217"/>
+      <c r="Q40" s="218"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -7802,28 +8316,36 @@
       <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B41" s="181"/>
+      <c r="A41" s="20">
+        <v>39</v>
+      </c>
+      <c r="B41" s="176">
+        <v>34</v>
+      </c>
       <c r="C41" s="78" t="s">
-        <v>357</v>
-      </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78" t="s">
-        <v>358</v>
-      </c>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
+        <v>347</v>
+      </c>
+      <c r="D41" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="E41" s="186" t="s">
+        <v>461</v>
+      </c>
+      <c r="F41" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
+      <c r="I41" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J41" s="85"/>
-      <c r="K41" s="178" t="str">
+      <c r="K41" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L41" s="179"/>
+        <v>AccuracyMinor</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -7842,29 +8364,31 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B42" s="181"/>
+    <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>40</v>
+      </c>
+      <c r="B42" s="176">
+        <v>35</v>
+      </c>
       <c r="C42" s="78" t="s">
-        <v>359</v>
-      </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78" t="s">
-        <v>360</v>
+        <v>348</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="E42" s="186" t="s">
+        <v>349</v>
       </c>
       <c r="F42" s="79"/>
       <c r="G42" s="79"/>
       <c r="H42" s="79"/>
       <c r="I42" s="79"/>
       <c r="J42" s="85"/>
-      <c r="K42" s="178" t="str">
+      <c r="K42" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L42" s="179"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -7883,29 +8407,31 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B43" s="181"/>
+    <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>41</v>
+      </c>
+      <c r="B43" s="176">
+        <v>36</v>
+      </c>
       <c r="C43" s="78" t="s">
-        <v>361</v>
-      </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78" t="s">
-        <v>362</v>
+        <v>350</v>
+      </c>
+      <c r="D43" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="E43" s="186" t="s">
+        <v>473</v>
       </c>
       <c r="F43" s="79"/>
       <c r="G43" s="79"/>
       <c r="H43" s="79"/>
       <c r="I43" s="79"/>
       <c r="J43" s="85"/>
-      <c r="K43" s="178" t="str">
+      <c r="K43" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L43" s="179"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -7925,28 +8451,36 @@
       <c r="AC43" s="1"/>
     </row>
     <row r="44" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B44" s="181"/>
+      <c r="A44" s="20">
+        <v>42</v>
+      </c>
+      <c r="B44" s="176">
+        <v>37</v>
+      </c>
       <c r="C44" s="78" t="s">
-        <v>363</v>
-      </c>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78" t="s">
-        <v>364</v>
-      </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
+        <v>351</v>
+      </c>
+      <c r="D44" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="E44" s="186" t="s">
+        <v>474</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
+      <c r="I44" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J44" s="85"/>
-      <c r="K44" s="178" t="str">
+      <c r="K44" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L44" s="179"/>
+        <v>AccuracyMajor</v>
+      </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -7965,29 +8499,29 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="78" t="s">
-        <v>365</v>
-      </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78" t="s">
-        <v>366</v>
-      </c>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
+    <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>43</v>
+      </c>
+      <c r="B45" s="176">
+        <v>37</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="E45" s="186"/>
+      <c r="F45" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
+      <c r="I45" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J45" s="85"/>
-      <c r="K45" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L45" s="179"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -8006,29 +8540,35 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B46" s="181"/>
+    <row r="46" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>44</v>
+      </c>
+      <c r="B46" s="176">
+        <v>38</v>
+      </c>
       <c r="C46" s="78" t="s">
-        <v>367</v>
-      </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78" t="s">
-        <v>368</v>
-      </c>
-      <c r="F46" s="79"/>
+        <v>352</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="E46" s="186" t="s">
+        <v>428</v>
+      </c>
+      <c r="F46" s="79" t="s">
+        <v>139</v>
+      </c>
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
+      <c r="I46" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J46" s="85"/>
-      <c r="K46" s="178" t="str">
+      <c r="K46" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L46" s="179"/>
+        <v>FluencyMajor</v>
+      </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -8048,28 +8588,36 @@
       <c r="AC46" s="1"/>
     </row>
     <row r="47" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B47" s="181"/>
+      <c r="A47" s="20">
+        <v>45</v>
+      </c>
+      <c r="B47" s="176">
+        <v>39</v>
+      </c>
       <c r="C47" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
+        <v>353</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="E47" s="186" t="s">
+        <v>354</v>
+      </c>
+      <c r="F47" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
+      <c r="I47" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J47" s="85"/>
-      <c r="K47" s="178" t="str">
+      <c r="K47" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L47" s="179"/>
+        <v>AccuracyMajor</v>
+      </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -8088,29 +8636,31 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B48" s="181"/>
+    <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>46</v>
+      </c>
+      <c r="B48" s="176">
+        <v>40</v>
+      </c>
       <c r="C48" s="78" t="s">
-        <v>371</v>
-      </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78" t="s">
-        <v>372</v>
+        <v>355</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="E48" s="186" t="s">
+        <v>356</v>
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
       <c r="H48" s="79"/>
       <c r="I48" s="79"/>
       <c r="J48" s="85"/>
-      <c r="K48" s="178" t="str">
+      <c r="K48" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L48" s="179"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -8129,29 +8679,37 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B49" s="181"/>
+    <row r="49" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>47</v>
+      </c>
+      <c r="B49" s="176">
+        <v>41</v>
+      </c>
       <c r="C49" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78" t="s">
-        <v>374</v>
-      </c>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
+        <v>357</v>
+      </c>
+      <c r="D49" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="E49" s="186" t="s">
+        <v>358</v>
+      </c>
+      <c r="F49" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
+      <c r="I49" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J49" s="85"/>
-      <c r="K49" s="178" t="str">
+      <c r="K49" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L49" s="179"/>
+        <v>AccuracyMajor</v>
+      </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -8170,40 +8728,38 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="70">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B50" s="181"/>
+    <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>48</v>
+      </c>
+      <c r="B50" s="176">
+        <v>42</v>
+      </c>
       <c r="C50" s="78" t="s">
-        <v>375</v>
-      </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78" t="s">
-        <v>376</v>
+        <v>359</v>
+      </c>
+      <c r="D50" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="E50" s="186" t="s">
+        <v>360</v>
       </c>
       <c r="F50" s="79"/>
       <c r="G50" s="79"/>
       <c r="H50" s="79"/>
       <c r="I50" s="79"/>
       <c r="J50" s="85"/>
-      <c r="K50" s="178" t="str">
+      <c r="K50" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L50" s="179"/>
-      <c r="M50" s="206" t="s">
-        <v>95</v>
-      </c>
-      <c r="N50" s="207"/>
-      <c r="O50" s="207"/>
-      <c r="P50" s="207"/>
-      <c r="Q50" s="208"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
@@ -8216,39 +8772,43 @@
       <c r="AC50" s="1"/>
     </row>
     <row r="51" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B51" s="181"/>
+      <c r="A51" s="20">
+        <v>49</v>
+      </c>
+      <c r="B51" s="176">
+        <v>43</v>
+      </c>
       <c r="C51" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78" t="s">
-        <v>378</v>
-      </c>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
+        <v>361</v>
+      </c>
+      <c r="D51" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="E51" s="177" t="s">
+        <v>475</v>
+      </c>
+      <c r="F51" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
+      <c r="I51" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J51" s="85"/>
-      <c r="K51" s="178" t="str">
+      <c r="K51" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L51" s="179"/>
-      <c r="M51" s="206" t="s">
-        <v>96</v>
-      </c>
-      <c r="N51" s="207"/>
-      <c r="O51" s="207"/>
-      <c r="P51" s="207"/>
-      <c r="Q51" s="208"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="18" t="s">
-        <v>97</v>
-      </c>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
@@ -8260,40 +8820,44 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B52" s="181"/>
+    <row r="52" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>50</v>
+      </c>
+      <c r="B52" s="176">
+        <v>44</v>
+      </c>
       <c r="C52" s="78" t="s">
-        <v>379</v>
-      </c>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78" t="s">
-        <v>380</v>
-      </c>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
+        <v>362</v>
+      </c>
+      <c r="D52" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="E52" s="186" t="s">
+        <v>363</v>
+      </c>
+      <c r="F52" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
+      <c r="I52" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J52" s="85"/>
-      <c r="K52" s="178" t="str">
+      <c r="K52" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L52" s="179"/>
-      <c r="M52" s="206" t="s">
-        <v>99</v>
-      </c>
-      <c r="N52" s="207"/>
-      <c r="O52" s="207"/>
-      <c r="P52" s="207"/>
-      <c r="Q52" s="208"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="S52" s="160" t="s">
-        <v>275</v>
-      </c>
+      <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
@@ -8305,38 +8869,44 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B53" s="181"/>
+    <row r="53" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>51</v>
+      </c>
+      <c r="B53" s="176">
+        <v>45</v>
+      </c>
       <c r="C53" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78" t="s">
-        <v>382</v>
-      </c>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
+        <v>364</v>
+      </c>
+      <c r="D53" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="E53" s="186" t="s">
+        <v>365</v>
+      </c>
+      <c r="F53" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="79" t="s">
+        <v>142</v>
+      </c>
       <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
+      <c r="I53" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J53" s="85"/>
-      <c r="K53" s="178" t="str">
+      <c r="K53" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L53" s="179"/>
-      <c r="M53" s="209"/>
-      <c r="N53" s="207"/>
-      <c r="O53" s="207"/>
-      <c r="P53" s="207"/>
-      <c r="Q53" s="208"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="160" t="s">
-        <v>276</v>
-      </c>
+        <v>FluencyMinor</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
@@ -8348,33 +8918,47 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="70">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B54" s="181"/>
-      <c r="D54" s="78"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
+    <row r="54" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>52</v>
+      </c>
+      <c r="B54" s="176">
+        <v>46</v>
+      </c>
+      <c r="C54" s="78" t="s">
+        <v>366</v>
+      </c>
+      <c r="D54" s="78" t="s">
+        <v>438</v>
+      </c>
+      <c r="E54" s="186" t="s">
+        <v>437</v>
+      </c>
+      <c r="F54" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
+      <c r="I54" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J54" s="85"/>
-      <c r="K54" s="178" t="str">
+      <c r="K54" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L54" s="179"/>
-      <c r="M54" s="206" t="s">
-        <v>100</v>
-      </c>
-      <c r="N54" s="207"/>
-      <c r="O54" s="207"/>
-      <c r="P54" s="207"/>
-      <c r="Q54" s="208"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="160" t="s">
-        <v>277</v>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="M54" s="212" t="s">
+        <v>95</v>
+      </c>
+      <c r="N54" s="213"/>
+      <c r="O54" s="213"/>
+      <c r="P54" s="213"/>
+      <c r="Q54" s="214"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -8387,34 +8971,36 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B55" s="71"/>
+    <row r="55" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <v>53</v>
+      </c>
+      <c r="B55" s="176">
+        <v>46</v>
+      </c>
       <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
+      <c r="D55" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="E55" s="186"/>
+      <c r="F55" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" s="79" t="s">
+        <v>140</v>
+      </c>
       <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
+      <c r="I55" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J55" s="85"/>
-      <c r="K55" s="178" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L55" s="179"/>
-      <c r="M55" s="209"/>
-      <c r="N55" s="207"/>
-      <c r="O55" s="207"/>
-      <c r="P55" s="207"/>
-      <c r="Q55" s="208"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="161" t="s">
-        <v>109</v>
-      </c>
+      <c r="M55" s="179"/>
+      <c r="N55" s="180"/>
+      <c r="O55" s="180"/>
+      <c r="P55" s="180"/>
+      <c r="Q55" s="181"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="18"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
@@ -8426,34 +9012,48 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="70">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
+    <row r="56" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
+        <v>54</v>
+      </c>
+      <c r="B56" s="176">
+        <v>47</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>476</v>
+      </c>
+      <c r="E56" s="186" t="s">
+        <v>439</v>
+      </c>
+      <c r="F56" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
+      <c r="I56" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J56" s="85"/>
-      <c r="K56" s="178" t="str">
+      <c r="K56" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L56" s="179"/>
-      <c r="M56" s="206" t="s">
-        <v>104</v>
-      </c>
-      <c r="N56" s="207"/>
-      <c r="O56" s="207"/>
-      <c r="P56" s="207"/>
-      <c r="Q56" s="208"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="21"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M56" s="212" t="s">
+        <v>96</v>
+      </c>
+      <c r="N56" s="213"/>
+      <c r="O56" s="213"/>
+      <c r="P56" s="213"/>
+      <c r="Q56" s="214"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
@@ -8465,32 +9065,48 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
+    <row r="57" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="20">
+        <v>55</v>
+      </c>
+      <c r="B57" s="176">
+        <v>48</v>
+      </c>
+      <c r="C57" s="78" t="s">
+        <v>368</v>
+      </c>
+      <c r="D57" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="E57" s="186" t="s">
+        <v>369</v>
+      </c>
+      <c r="F57" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
+      <c r="I57" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J57" s="85"/>
-      <c r="K57" s="178" t="str">
+      <c r="K57" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L57" s="179"/>
-      <c r="M57" s="209"/>
-      <c r="N57" s="207"/>
-      <c r="O57" s="207"/>
-      <c r="P57" s="207"/>
-      <c r="Q57" s="208"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="21"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M57" s="212" t="s">
+        <v>99</v>
+      </c>
+      <c r="N57" s="213"/>
+      <c r="O57" s="213"/>
+      <c r="P57" s="213"/>
+      <c r="Q57" s="214"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="160" t="s">
+        <v>275</v>
+      </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
@@ -8502,34 +9118,40 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
+    <row r="58" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>56</v>
+      </c>
+      <c r="B58" s="176">
+        <v>49</v>
+      </c>
+      <c r="C58" s="78" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="E58" s="186" t="s">
+        <v>442</v>
+      </c>
       <c r="F58" s="79"/>
       <c r="G58" s="79"/>
       <c r="H58" s="79"/>
       <c r="I58" s="79"/>
       <c r="J58" s="85"/>
-      <c r="K58" s="178" t="str">
+      <c r="K58" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L58" s="179"/>
-      <c r="M58" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="N58" s="207"/>
-      <c r="O58" s="207"/>
-      <c r="P58" s="207"/>
-      <c r="Q58" s="208"/>
+      <c r="M58" s="215"/>
+      <c r="N58" s="213"/>
+      <c r="O58" s="213"/>
+      <c r="P58" s="213"/>
+      <c r="Q58" s="214"/>
       <c r="R58" s="88"/>
-      <c r="S58" s="21"/>
+      <c r="S58" s="160" t="s">
+        <v>276</v>
+      </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -8541,32 +9163,48 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
+    <row r="59" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="20">
+        <v>57</v>
+      </c>
+      <c r="B59" s="176">
+        <v>50</v>
+      </c>
+      <c r="C59" s="182" t="s">
+        <v>441</v>
+      </c>
+      <c r="D59" s="78" t="s">
+        <v>443</v>
+      </c>
+      <c r="E59" s="187" t="s">
+        <v>478</v>
+      </c>
+      <c r="F59" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
+      <c r="I59" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J59" s="85"/>
-      <c r="K59" s="178" t="str">
+      <c r="K59" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L59" s="179"/>
-      <c r="M59" s="210"/>
-      <c r="N59" s="211"/>
-      <c r="O59" s="211"/>
-      <c r="P59" s="211"/>
-      <c r="Q59" s="212"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="M59" s="212" t="s">
+        <v>100</v>
+      </c>
+      <c r="N59" s="213"/>
+      <c r="O59" s="213"/>
+      <c r="P59" s="213"/>
+      <c r="Q59" s="214"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="160" t="s">
+        <v>277</v>
+      </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -8578,32 +9216,40 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="70">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="79"/>
+    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>58</v>
+      </c>
+      <c r="B60" s="176">
+        <v>51</v>
+      </c>
+      <c r="C60" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="E60" s="188" t="s">
+        <v>405</v>
+      </c>
       <c r="F60" s="79"/>
       <c r="G60" s="79"/>
       <c r="H60" s="79"/>
       <c r="I60" s="79"/>
       <c r="J60" s="85"/>
-      <c r="K60" s="178" t="str">
+      <c r="K60" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L60" s="179"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="M60" s="215"/>
+      <c r="N60" s="213"/>
+      <c r="O60" s="213"/>
+      <c r="P60" s="213"/>
+      <c r="Q60" s="214"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
+      <c r="S60" s="161" t="s">
+        <v>109</v>
+      </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
@@ -8615,32 +9261,46 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
+    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>59</v>
+      </c>
+      <c r="B61" s="176">
+        <v>52</v>
+      </c>
+      <c r="C61" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="E61" s="188" t="s">
+        <v>407</v>
+      </c>
+      <c r="F61" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
+      <c r="I61" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J61" s="85"/>
-      <c r="K61" s="178" t="str">
+      <c r="K61" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L61" s="179"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="M61" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="N61" s="213"/>
+      <c r="O61" s="213"/>
+      <c r="P61" s="213"/>
+      <c r="Q61" s="214"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="21"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
@@ -8652,32 +9312,44 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="70">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
+    <row r="62" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>60</v>
+      </c>
+      <c r="B62" s="176">
+        <v>53</v>
+      </c>
+      <c r="C62" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>446</v>
+      </c>
+      <c r="E62" s="188" t="s">
+        <v>409</v>
+      </c>
+      <c r="F62" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
+      <c r="I62" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J62" s="85"/>
-      <c r="K62" s="178" t="str">
+      <c r="K62" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L62" s="179"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="M62" s="215"/>
+      <c r="N62" s="213"/>
+      <c r="O62" s="213"/>
+      <c r="P62" s="213"/>
+      <c r="Q62" s="214"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="21"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
@@ -8689,32 +9361,46 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="70">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
+    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20">
+        <v>61</v>
+      </c>
+      <c r="B63" s="176">
+        <v>54</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>447</v>
+      </c>
+      <c r="E63" s="188" t="s">
+        <v>411</v>
+      </c>
+      <c r="F63" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
+      <c r="I63" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J63" s="85"/>
-      <c r="K63" s="178" t="str">
+      <c r="K63" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L63" s="179"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="M63" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="N63" s="213"/>
+      <c r="O63" s="213"/>
+      <c r="P63" s="213"/>
+      <c r="Q63" s="214"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="21"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
@@ -8726,30 +9412,36 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="70">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="79"/>
+    <row r="64" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>62</v>
+      </c>
+      <c r="B64" s="176">
+        <v>55</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="E64" s="188" t="s">
+        <v>413</v>
+      </c>
       <c r="F64" s="79"/>
       <c r="G64" s="79"/>
       <c r="H64" s="79"/>
       <c r="I64" s="79"/>
       <c r="J64" s="85"/>
-      <c r="K64" s="178" t="str">
+      <c r="K64" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L64" s="179"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="M64" s="216"/>
+      <c r="N64" s="217"/>
+      <c r="O64" s="217"/>
+      <c r="P64" s="217"/>
+      <c r="Q64" s="218"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
@@ -8764,24 +9456,30 @@
       <c r="AC64" s="1"/>
     </row>
     <row r="65" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="70">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="79"/>
+      <c r="A65" s="20">
+        <v>63</v>
+      </c>
+      <c r="B65" s="176">
+        <v>56</v>
+      </c>
+      <c r="C65" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="E65" s="188" t="s">
+        <v>415</v>
+      </c>
       <c r="F65" s="79"/>
       <c r="G65" s="79"/>
       <c r="H65" s="79"/>
       <c r="I65" s="79"/>
       <c r="J65" s="85"/>
-      <c r="K65" s="178" t="str">
+      <c r="K65" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L65" s="179"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -8801,24 +9499,30 @@
       <c r="AC65" s="1"/>
     </row>
     <row r="66" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="70">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B66" s="71"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="79"/>
+      <c r="A66" s="20">
+        <v>64</v>
+      </c>
+      <c r="B66" s="176">
+        <v>57</v>
+      </c>
+      <c r="C66" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="D66" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="E66" s="188" t="s">
+        <v>417</v>
+      </c>
       <c r="F66" s="79"/>
       <c r="G66" s="79"/>
       <c r="H66" s="79"/>
       <c r="I66" s="79"/>
       <c r="J66" s="85"/>
-      <c r="K66" s="178" t="str">
+      <c r="K66" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L66" s="179"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -8838,24 +9542,36 @@
       <c r="AC66" s="1"/>
     </row>
     <row r="67" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="70">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
+      <c r="A67" s="20">
+        <v>65</v>
+      </c>
+      <c r="B67" s="176">
+        <v>58</v>
+      </c>
+      <c r="C67" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>451</v>
+      </c>
+      <c r="E67" s="188" t="s">
+        <v>462</v>
+      </c>
+      <c r="F67" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
+      <c r="I67" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J67" s="85"/>
-      <c r="K67" s="178" t="str">
+      <c r="K67" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L67" s="179"/>
+        <v>AccuracyMajor</v>
+      </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -8875,24 +9591,36 @@
       <c r="AC67" s="1"/>
     </row>
     <row r="68" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="70">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
+      <c r="A68" s="20">
+        <v>66</v>
+      </c>
+      <c r="B68" s="176">
+        <v>59</v>
+      </c>
+      <c r="C68" s="79" t="s">
+        <v>419</v>
+      </c>
+      <c r="D68" s="79" t="s">
+        <v>452</v>
+      </c>
+      <c r="E68" s="188" t="s">
+        <v>420</v>
+      </c>
+      <c r="F68" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
+      <c r="I68" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J68" s="85"/>
-      <c r="K68" s="178" t="str">
+      <c r="K68" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L68" s="179"/>
+        <v>AccuracyMinor</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -8912,24 +9640,30 @@
       <c r="AC68" s="1"/>
     </row>
     <row r="69" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="70">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="79"/>
+      <c r="A69" s="20">
+        <v>67</v>
+      </c>
+      <c r="B69" s="176">
+        <v>60</v>
+      </c>
+      <c r="C69" s="79" t="s">
+        <v>421</v>
+      </c>
+      <c r="D69" s="79" t="s">
+        <v>453</v>
+      </c>
+      <c r="E69" s="188" t="s">
+        <v>422</v>
+      </c>
       <c r="F69" s="79"/>
       <c r="G69" s="79"/>
       <c r="H69" s="79"/>
       <c r="I69" s="79"/>
       <c r="J69" s="85"/>
-      <c r="K69" s="178" t="str">
-        <f t="shared" ref="K69:K104" si="2">CONCATENATE(F69,I69)</f>
+      <c r="K69" s="122" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L69" s="179"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -8950,23 +9684,22 @@
     </row>
     <row r="70" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
-        <f t="shared" ref="A70:A104" si="3">A69+1</f>
-        <v>34</v>
+        <f t="shared" ref="A70:A74" si="1">A69+1</f>
+        <v>68</v>
       </c>
       <c r="B70" s="71"/>
       <c r="C70" s="78"/>
       <c r="D70" s="78"/>
-      <c r="E70" s="79"/>
+      <c r="E70" s="188"/>
       <c r="F70" s="79"/>
       <c r="G70" s="79"/>
       <c r="H70" s="79"/>
       <c r="I70" s="79"/>
       <c r="J70" s="85"/>
-      <c r="K70" s="178" t="str">
-        <f t="shared" si="2"/>
+      <c r="K70" s="122" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L70" s="179"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -8987,23 +9720,22 @@
     </row>
     <row r="71" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="B71" s="71"/>
       <c r="C71" s="78"/>
       <c r="D71" s="78"/>
-      <c r="E71" s="79"/>
+      <c r="E71" s="188"/>
       <c r="F71" s="79"/>
       <c r="G71" s="79"/>
       <c r="H71" s="79"/>
       <c r="I71" s="79"/>
       <c r="J71" s="85"/>
-      <c r="K71" s="178" t="str">
-        <f t="shared" si="2"/>
+      <c r="K71" s="122" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L71" s="179"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -9022,34 +9754,31 @@
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="78"/>
       <c r="D72" s="78"/>
-      <c r="E72" s="79"/>
+      <c r="E72" s="188"/>
       <c r="F72" s="79"/>
       <c r="G72" s="79"/>
       <c r="H72" s="79"/>
       <c r="I72" s="79"/>
       <c r="J72" s="85"/>
-      <c r="K72" s="178" t="str">
-        <f t="shared" si="2"/>
+      <c r="K72" s="122" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L72" s="179"/>
-      <c r="M72" s="206" t="s">
-        <v>104</v>
-      </c>
-      <c r="N72" s="207"/>
-      <c r="O72" s="207"/>
-      <c r="P72" s="207"/>
-      <c r="Q72" s="208"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="21"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
@@ -9061,32 +9790,31 @@
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="70">
-        <f t="shared" si="3"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="B73" s="71"/>
       <c r="C73" s="78"/>
       <c r="D73" s="78"/>
-      <c r="E73" s="79"/>
+      <c r="E73" s="188"/>
       <c r="F73" s="79"/>
       <c r="G73" s="79"/>
       <c r="H73" s="79"/>
       <c r="I73" s="79"/>
       <c r="J73" s="85"/>
-      <c r="K73" s="178" t="str">
-        <f t="shared" si="2"/>
+      <c r="K73" s="122" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L73" s="179"/>
-      <c r="M73" s="209"/>
-      <c r="N73" s="207"/>
-      <c r="O73" s="207"/>
-      <c r="P73" s="207"/>
-      <c r="Q73" s="208"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="21"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
@@ -9098,34 +9826,31 @@
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
-        <f t="shared" si="3"/>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="B74" s="71"/>
       <c r="C74" s="78"/>
       <c r="D74" s="78"/>
-      <c r="E74" s="79"/>
+      <c r="E74" s="188"/>
       <c r="F74" s="79"/>
       <c r="G74" s="79"/>
       <c r="H74" s="79"/>
       <c r="I74" s="79"/>
       <c r="J74" s="85"/>
-      <c r="K74" s="178" t="str">
-        <f t="shared" si="2"/>
+      <c r="K74" s="122" t="str">
+        <f t="shared" ref="K74:K109" si="2">CONCATENATE(F74,I74)</f>
         <v/>
       </c>
-      <c r="L74" s="179"/>
-      <c r="M74" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="N74" s="207"/>
-      <c r="O74" s="207"/>
-      <c r="P74" s="207"/>
-      <c r="Q74" s="208"/>
-      <c r="R74" s="88"/>
-      <c r="S74" s="21"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
@@ -9137,30 +9862,29 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70">
-        <f t="shared" si="3"/>
-        <v>39</v>
+        <f t="shared" ref="A75:A109" si="3">A74+1</f>
+        <v>73</v>
       </c>
       <c r="B75" s="71"/>
       <c r="C75" s="78"/>
       <c r="D75" s="78"/>
-      <c r="E75" s="79"/>
+      <c r="E75" s="188"/>
       <c r="F75" s="79"/>
       <c r="G75" s="79"/>
       <c r="H75" s="79"/>
       <c r="I75" s="79"/>
       <c r="J75" s="85"/>
-      <c r="K75" s="178" t="str">
+      <c r="K75" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L75" s="179"/>
-      <c r="M75" s="210"/>
-      <c r="N75" s="211"/>
-      <c r="O75" s="211"/>
-      <c r="P75" s="211"/>
-      <c r="Q75" s="212"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
@@ -9177,22 +9901,21 @@
     <row r="76" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B76" s="71"/>
       <c r="C76" s="78"/>
       <c r="D76" s="78"/>
-      <c r="E76" s="79"/>
+      <c r="E76" s="188"/>
       <c r="F76" s="79"/>
       <c r="G76" s="79"/>
       <c r="H76" s="79"/>
       <c r="I76" s="79"/>
       <c r="J76" s="85"/>
-      <c r="K76" s="178" t="str">
+      <c r="K76" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L76" s="179"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -9211,32 +9934,33 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="70">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B77" s="71"/>
       <c r="C77" s="78"/>
       <c r="D77" s="78"/>
-      <c r="E77" s="79"/>
+      <c r="E77" s="188"/>
       <c r="F77" s="79"/>
       <c r="G77" s="79"/>
       <c r="H77" s="79"/>
       <c r="I77" s="79"/>
       <c r="J77" s="85"/>
-      <c r="K77" s="178" t="str">
+      <c r="K77" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L77" s="179"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
+      <c r="M77" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="N77" s="213"/>
+      <c r="O77" s="213"/>
+      <c r="P77" s="213"/>
+      <c r="Q77" s="214"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="21"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
@@ -9248,32 +9972,31 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B78" s="71"/>
       <c r="C78" s="78"/>
       <c r="D78" s="78"/>
-      <c r="E78" s="79"/>
+      <c r="E78" s="188"/>
       <c r="F78" s="79"/>
       <c r="G78" s="79"/>
       <c r="H78" s="79"/>
       <c r="I78" s="79"/>
       <c r="J78" s="85"/>
-      <c r="K78" s="178" t="str">
+      <c r="K78" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L78" s="179"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
+      <c r="M78" s="215"/>
+      <c r="N78" s="213"/>
+      <c r="O78" s="213"/>
+      <c r="P78" s="213"/>
+      <c r="Q78" s="214"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="21"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
@@ -9285,32 +10008,33 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="70">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B79" s="71"/>
       <c r="C79" s="78"/>
       <c r="D79" s="78"/>
-      <c r="E79" s="79"/>
+      <c r="E79" s="188"/>
       <c r="F79" s="79"/>
       <c r="G79" s="79"/>
       <c r="H79" s="79"/>
       <c r="I79" s="79"/>
       <c r="J79" s="85"/>
-      <c r="K79" s="178" t="str">
+      <c r="K79" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L79" s="179"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
+      <c r="M79" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="N79" s="213"/>
+      <c r="O79" s="213"/>
+      <c r="P79" s="213"/>
+      <c r="Q79" s="214"/>
+      <c r="R79" s="88"/>
+      <c r="S79" s="21"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
@@ -9322,30 +10046,29 @@
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B80" s="71"/>
       <c r="C80" s="78"/>
       <c r="D80" s="78"/>
-      <c r="E80" s="79"/>
+      <c r="E80" s="188"/>
       <c r="F80" s="79"/>
       <c r="G80" s="79"/>
       <c r="H80" s="79"/>
       <c r="I80" s="79"/>
       <c r="J80" s="85"/>
-      <c r="K80" s="178" t="str">
+      <c r="K80" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L80" s="179"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="M80" s="216"/>
+      <c r="N80" s="217"/>
+      <c r="O80" s="217"/>
+      <c r="P80" s="217"/>
+      <c r="Q80" s="218"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -9362,22 +10085,21 @@
     <row r="81" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="70">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B81" s="71"/>
       <c r="C81" s="78"/>
       <c r="D81" s="78"/>
-      <c r="E81" s="79"/>
+      <c r="E81" s="188"/>
       <c r="F81" s="79"/>
       <c r="G81" s="79"/>
       <c r="H81" s="79"/>
       <c r="I81" s="79"/>
       <c r="J81" s="85"/>
-      <c r="K81" s="178" t="str">
+      <c r="K81" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L81" s="179"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -9399,22 +10121,21 @@
     <row r="82" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="70">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B82" s="71"/>
       <c r="C82" s="78"/>
       <c r="D82" s="78"/>
-      <c r="E82" s="79"/>
+      <c r="E82" s="188"/>
       <c r="F82" s="79"/>
       <c r="G82" s="79"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="85"/>
-      <c r="K82" s="178" t="str">
+      <c r="K82" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L82" s="179"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -9436,22 +10157,21 @@
     <row r="83" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="70">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B83" s="71"/>
       <c r="C83" s="78"/>
       <c r="D83" s="78"/>
-      <c r="E83" s="79"/>
+      <c r="E83" s="188"/>
       <c r="F83" s="79"/>
       <c r="G83" s="79"/>
       <c r="H83" s="79"/>
       <c r="I83" s="79"/>
       <c r="J83" s="85"/>
-      <c r="K83" s="178" t="str">
+      <c r="K83" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L83" s="179"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -9473,22 +10193,21 @@
     <row r="84" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B84" s="71"/>
       <c r="C84" s="78"/>
       <c r="D84" s="78"/>
-      <c r="E84" s="79"/>
+      <c r="E84" s="188"/>
       <c r="F84" s="79"/>
       <c r="G84" s="79"/>
       <c r="H84" s="79"/>
       <c r="I84" s="79"/>
       <c r="J84" s="85"/>
-      <c r="K84" s="178" t="str">
+      <c r="K84" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L84" s="179"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -9510,22 +10229,21 @@
     <row r="85" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="70">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="78"/>
       <c r="D85" s="78"/>
-      <c r="E85" s="79"/>
+      <c r="E85" s="188"/>
       <c r="F85" s="79"/>
       <c r="G85" s="79"/>
       <c r="H85" s="79"/>
       <c r="I85" s="79"/>
       <c r="J85" s="85"/>
-      <c r="K85" s="178" t="str">
+      <c r="K85" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L85" s="179"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -9547,22 +10265,21 @@
     <row r="86" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B86" s="71"/>
       <c r="C86" s="78"/>
       <c r="D86" s="78"/>
-      <c r="E86" s="79"/>
+      <c r="E86" s="188"/>
       <c r="F86" s="79"/>
       <c r="G86" s="79"/>
       <c r="H86" s="79"/>
       <c r="I86" s="79"/>
       <c r="J86" s="85"/>
-      <c r="K86" s="178" t="str">
+      <c r="K86" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L86" s="179"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -9584,22 +10301,21 @@
     <row r="87" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="70">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B87" s="71"/>
       <c r="C87" s="78"/>
       <c r="D87" s="78"/>
-      <c r="E87" s="79"/>
+      <c r="E87" s="188"/>
       <c r="F87" s="79"/>
       <c r="G87" s="79"/>
       <c r="H87" s="79"/>
       <c r="I87" s="79"/>
       <c r="J87" s="85"/>
-      <c r="K87" s="178" t="str">
+      <c r="K87" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L87" s="179"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -9618,34 +10334,31 @@
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="70">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B88" s="71"/>
       <c r="C88" s="78"/>
       <c r="D88" s="78"/>
-      <c r="E88" s="79"/>
+      <c r="E88" s="188"/>
       <c r="F88" s="79"/>
       <c r="G88" s="79"/>
       <c r="H88" s="79"/>
       <c r="I88" s="79"/>
       <c r="J88" s="85"/>
-      <c r="K88" s="178" t="str">
+      <c r="K88" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L88" s="179"/>
-      <c r="M88" s="206" t="s">
-        <v>104</v>
-      </c>
-      <c r="N88" s="207"/>
-      <c r="O88" s="207"/>
-      <c r="P88" s="207"/>
-      <c r="Q88" s="208"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="21"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
@@ -9657,32 +10370,31 @@
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
     </row>
-    <row r="89" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="70">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B89" s="71"/>
       <c r="C89" s="78"/>
       <c r="D89" s="78"/>
-      <c r="E89" s="79"/>
+      <c r="E89" s="188"/>
       <c r="F89" s="79"/>
       <c r="G89" s="79"/>
       <c r="H89" s="79"/>
       <c r="I89" s="79"/>
       <c r="J89" s="85"/>
-      <c r="K89" s="178" t="str">
+      <c r="K89" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L89" s="179"/>
-      <c r="M89" s="209"/>
-      <c r="N89" s="207"/>
-      <c r="O89" s="207"/>
-      <c r="P89" s="207"/>
-      <c r="Q89" s="208"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="21"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
@@ -9694,34 +10406,31 @@
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
     </row>
-    <row r="90" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="70">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B90" s="71"/>
       <c r="C90" s="78"/>
       <c r="D90" s="78"/>
-      <c r="E90" s="79"/>
+      <c r="E90" s="188"/>
       <c r="F90" s="79"/>
       <c r="G90" s="79"/>
       <c r="H90" s="79"/>
       <c r="I90" s="79"/>
       <c r="J90" s="85"/>
-      <c r="K90" s="178" t="str">
+      <c r="K90" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L90" s="179"/>
-      <c r="M90" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="N90" s="207"/>
-      <c r="O90" s="207"/>
-      <c r="P90" s="207"/>
-      <c r="Q90" s="208"/>
-      <c r="R90" s="88"/>
-      <c r="S90" s="21"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
@@ -9733,30 +10442,29 @@
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
     </row>
-    <row r="91" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="70">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B91" s="71"/>
       <c r="C91" s="78"/>
       <c r="D91" s="78"/>
-      <c r="E91" s="79"/>
+      <c r="E91" s="188"/>
       <c r="F91" s="79"/>
       <c r="G91" s="79"/>
       <c r="H91" s="79"/>
       <c r="I91" s="79"/>
       <c r="J91" s="85"/>
-      <c r="K91" s="178" t="str">
+      <c r="K91" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L91" s="179"/>
-      <c r="M91" s="210"/>
-      <c r="N91" s="211"/>
-      <c r="O91" s="211"/>
-      <c r="P91" s="211"/>
-      <c r="Q91" s="212"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
@@ -9773,22 +10481,21 @@
     <row r="92" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="70">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B92" s="71"/>
       <c r="C92" s="78"/>
       <c r="D92" s="78"/>
-      <c r="E92" s="79"/>
+      <c r="E92" s="188"/>
       <c r="F92" s="79"/>
       <c r="G92" s="79"/>
       <c r="H92" s="79"/>
       <c r="I92" s="79"/>
       <c r="J92" s="85"/>
-      <c r="K92" s="178" t="str">
+      <c r="K92" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L92" s="179"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -9807,32 +10514,33 @@
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
     </row>
-    <row r="93" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="70">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B93" s="71"/>
       <c r="C93" s="78"/>
       <c r="D93" s="78"/>
-      <c r="E93" s="79"/>
+      <c r="E93" s="188"/>
       <c r="F93" s="79"/>
       <c r="G93" s="79"/>
       <c r="H93" s="79"/>
       <c r="I93" s="79"/>
       <c r="J93" s="85"/>
-      <c r="K93" s="178" t="str">
+      <c r="K93" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L93" s="179"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
+      <c r="M93" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="N93" s="213"/>
+      <c r="O93" s="213"/>
+      <c r="P93" s="213"/>
+      <c r="Q93" s="214"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="21"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
@@ -9844,32 +10552,31 @@
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
     </row>
-    <row r="94" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="70">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B94" s="71"/>
       <c r="C94" s="78"/>
       <c r="D94" s="78"/>
-      <c r="E94" s="79"/>
+      <c r="E94" s="188"/>
       <c r="F94" s="79"/>
       <c r="G94" s="79"/>
       <c r="H94" s="79"/>
       <c r="I94" s="79"/>
       <c r="J94" s="85"/>
-      <c r="K94" s="178" t="str">
+      <c r="K94" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L94" s="179"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
+      <c r="M94" s="215"/>
+      <c r="N94" s="213"/>
+      <c r="O94" s="213"/>
+      <c r="P94" s="213"/>
+      <c r="Q94" s="214"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="21"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
@@ -9881,32 +10588,33 @@
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
     </row>
-    <row r="95" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="70">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B95" s="71"/>
       <c r="C95" s="78"/>
       <c r="D95" s="78"/>
-      <c r="E95" s="79"/>
+      <c r="E95" s="188"/>
       <c r="F95" s="79"/>
       <c r="G95" s="79"/>
       <c r="H95" s="79"/>
       <c r="I95" s="79"/>
       <c r="J95" s="85"/>
-      <c r="K95" s="178" t="str">
+      <c r="K95" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L95" s="179"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
+      <c r="M95" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="N95" s="213"/>
+      <c r="O95" s="213"/>
+      <c r="P95" s="213"/>
+      <c r="Q95" s="214"/>
+      <c r="R95" s="88"/>
+      <c r="S95" s="21"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
@@ -9918,30 +10626,29 @@
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
     </row>
-    <row r="96" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="70">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B96" s="71"/>
       <c r="C96" s="78"/>
       <c r="D96" s="78"/>
-      <c r="E96" s="79"/>
+      <c r="E96" s="188"/>
       <c r="F96" s="79"/>
       <c r="G96" s="79"/>
       <c r="H96" s="79"/>
       <c r="I96" s="79"/>
       <c r="J96" s="85"/>
-      <c r="K96" s="178" t="str">
+      <c r="K96" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L96" s="179"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
+      <c r="M96" s="216"/>
+      <c r="N96" s="217"/>
+      <c r="O96" s="217"/>
+      <c r="P96" s="217"/>
+      <c r="Q96" s="218"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
@@ -9958,22 +10665,21 @@
     <row r="97" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="70">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B97" s="71"/>
       <c r="C97" s="78"/>
       <c r="D97" s="78"/>
-      <c r="E97" s="79"/>
+      <c r="E97" s="188"/>
       <c r="F97" s="79"/>
       <c r="G97" s="79"/>
       <c r="H97" s="79"/>
       <c r="I97" s="79"/>
       <c r="J97" s="85"/>
-      <c r="K97" s="178" t="str">
+      <c r="K97" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L97" s="179"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -9995,22 +10701,21 @@
     <row r="98" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="70">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B98" s="71"/>
       <c r="C98" s="78"/>
       <c r="D98" s="78"/>
-      <c r="E98" s="79"/>
+      <c r="E98" s="188"/>
       <c r="F98" s="79"/>
       <c r="G98" s="79"/>
       <c r="H98" s="79"/>
       <c r="I98" s="79"/>
       <c r="J98" s="85"/>
-      <c r="K98" s="178" t="str">
+      <c r="K98" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L98" s="179"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -10032,22 +10737,21 @@
     <row r="99" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="70">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B99" s="71"/>
       <c r="C99" s="78"/>
       <c r="D99" s="78"/>
-      <c r="E99" s="79"/>
+      <c r="E99" s="188"/>
       <c r="F99" s="79"/>
       <c r="G99" s="79"/>
       <c r="H99" s="79"/>
       <c r="I99" s="79"/>
       <c r="J99" s="85"/>
-      <c r="K99" s="178" t="str">
+      <c r="K99" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L99" s="179"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -10069,22 +10773,21 @@
     <row r="100" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="70">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B100" s="71"/>
       <c r="C100" s="78"/>
       <c r="D100" s="78"/>
-      <c r="E100" s="79"/>
+      <c r="E100" s="188"/>
       <c r="F100" s="79"/>
       <c r="G100" s="79"/>
       <c r="H100" s="79"/>
       <c r="I100" s="79"/>
       <c r="J100" s="85"/>
-      <c r="K100" s="178" t="str">
+      <c r="K100" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L100" s="179"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -10106,22 +10809,21 @@
     <row r="101" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="70">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B101" s="71"/>
       <c r="C101" s="78"/>
       <c r="D101" s="78"/>
-      <c r="E101" s="79"/>
+      <c r="E101" s="188"/>
       <c r="F101" s="79"/>
       <c r="G101" s="79"/>
       <c r="H101" s="79"/>
       <c r="I101" s="79"/>
       <c r="J101" s="85"/>
-      <c r="K101" s="178" t="str">
+      <c r="K101" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L101" s="179"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -10143,22 +10845,21 @@
     <row r="102" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="70">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B102" s="71"/>
       <c r="C102" s="78"/>
       <c r="D102" s="78"/>
-      <c r="E102" s="79"/>
+      <c r="E102" s="188"/>
       <c r="F102" s="79"/>
       <c r="G102" s="79"/>
       <c r="H102" s="79"/>
       <c r="I102" s="79"/>
       <c r="J102" s="85"/>
-      <c r="K102" s="178" t="str">
+      <c r="K102" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L102" s="179"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -10180,22 +10881,21 @@
     <row r="103" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="70">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B103" s="71"/>
       <c r="C103" s="78"/>
       <c r="D103" s="78"/>
-      <c r="E103" s="79"/>
+      <c r="E103" s="188"/>
       <c r="F103" s="79"/>
       <c r="G103" s="79"/>
       <c r="H103" s="79"/>
       <c r="I103" s="79"/>
       <c r="J103" s="85"/>
-      <c r="K103" s="178" t="str">
+      <c r="K103" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L103" s="179"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -10217,22 +10917,21 @@
     <row r="104" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="70">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B104" s="71"/>
       <c r="C104" s="78"/>
       <c r="D104" s="78"/>
-      <c r="E104" s="79"/>
+      <c r="E104" s="188"/>
       <c r="F104" s="79"/>
       <c r="G104" s="79"/>
       <c r="H104" s="79"/>
       <c r="I104" s="79"/>
       <c r="J104" s="85"/>
-      <c r="K104" s="178" t="str">
+      <c r="K104" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L104" s="179"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -10251,8 +10950,188 @@
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
     </row>
-    <row r="107" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="46" t="s">
+    <row r="105" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="70">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B105" s="71"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="188"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="79"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+    </row>
+    <row r="106" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="70">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="71"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="188"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="85"/>
+      <c r="K106" s="122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+    </row>
+    <row r="107" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="70">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B107" s="71"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="188"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="85"/>
+      <c r="K107" s="122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+    </row>
+    <row r="108" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="70">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B108" s="71"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="188"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="79"/>
+      <c r="H108" s="79"/>
+      <c r="I108" s="79"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+    </row>
+    <row r="109" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="70">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="71"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="188"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="79"/>
+      <c r="J109" s="85"/>
+      <c r="K109" s="122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+    </row>
+    <row r="112" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="46" t="s">
         <v>67</v>
       </c>
     </row>
@@ -10260,37 +11139,37 @@
   <mergeCells count="24">
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M12:Q14"/>
-    <mergeCell ref="M10:Q11"/>
+    <mergeCell ref="M13:Q15"/>
+    <mergeCell ref="M10:Q12"/>
     <mergeCell ref="M8:Q9"/>
     <mergeCell ref="M6:Q7"/>
     <mergeCell ref="M5:Q5"/>
     <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M28:Q28"/>
     <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="M30:Q30"/>
     <mergeCell ref="M32:Q33"/>
-    <mergeCell ref="M34:Q35"/>
-    <mergeCell ref="M36:Q37"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="M52:Q53"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="M88:Q89"/>
-    <mergeCell ref="M90:Q91"/>
-    <mergeCell ref="M56:Q57"/>
-    <mergeCell ref="M58:Q59"/>
-    <mergeCell ref="M72:Q73"/>
-    <mergeCell ref="M74:Q75"/>
+    <mergeCell ref="M34:Q36"/>
+    <mergeCell ref="M37:Q38"/>
+    <mergeCell ref="M39:Q40"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="M57:Q58"/>
+    <mergeCell ref="M59:Q60"/>
+    <mergeCell ref="M93:Q94"/>
+    <mergeCell ref="M95:Q96"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="M63:Q64"/>
+    <mergeCell ref="M77:Q78"/>
+    <mergeCell ref="M79:Q80"/>
   </mergeCells>
   <dataValidations xWindow="1164" yWindow="337" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I3:I104" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I3:I109" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>severityLevel</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" prompt=" - " sqref="F3:F104" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" showInputMessage="1" prompt=" - " sqref="F3:F109" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>errorCriteria</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G104" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G109" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>INDIRECT(SUBSTITUTE($F3," ",""))</formula1>
     </dataValidation>
   </dataValidations>
@@ -10597,31 +11476,31 @@
         <v>83</v>
       </c>
       <c r="D12" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K104,"accuracyNeutral")+COUNTIFS( ReviewEnvironment!K3:K104,"accuracyMinor")+COUNTIFS( ReviewEnvironment!K3:K104,"accuracyMajor")+COUNTIFS( ReviewEnvironment!K3:K104,"accuracyCritical")</f>
-        <v>12</v>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"accuracyNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"accuracyMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"accuracyMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"accuracyCritical")</f>
+        <v>29</v>
       </c>
       <c r="E12" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"accuracyNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"accuracyNeutral")</f>
         <v>0</v>
       </c>
       <c r="F12" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"accuracyMinor")</f>
-        <v>5</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"accuracyMinor")</f>
+        <v>11</v>
       </c>
       <c r="G12" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"accuracyMajor")</f>
-        <v>7</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"accuracyMajor")</f>
+        <v>18</v>
       </c>
       <c r="H12" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"accuracyCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"accuracyCritical")</f>
         <v>0</v>
       </c>
       <c r="I12" s="61">
         <f>E12*PenaltiesThresholds!B4+F12*PenaltiesThresholds!B5+G12*PenaltiesThresholds!B6+H12*PenaltiesThresholds!B7</f>
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="J12" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"accuracyKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"accuracyKudos")</f>
         <v>0</v>
       </c>
       <c r="K12" s="55"/>
@@ -10641,31 +11520,31 @@
         <v>139</v>
       </c>
       <c r="D13" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K104,"fluencyNeutral")+COUNTIFS( ReviewEnvironment!K3:K104,"fluencyMinor")+COUNTIFS( ReviewEnvironment!K3:K104,"fluencyMajor")+COUNTIFS( ReviewEnvironment!K3:K104,"fluencyCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"fluencyNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"fluencyMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"fluencyMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"fluencyCritical")</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="61">
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"fluencyNeutral")</f>
         <v>0</v>
       </c>
-      <c r="E13" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"fluencyNeutral")</f>
-        <v>0</v>
-      </c>
       <c r="F13" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"fluencyMinor")</f>
-        <v>0</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"fluencyMinor")</f>
+        <v>2</v>
       </c>
       <c r="G13" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"fluencyMajor")</f>
-        <v>0</v>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"fluencyMajor")</f>
+        <v>1</v>
       </c>
       <c r="H13" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"fluencyCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"fluencyCritical")</f>
         <v>0</v>
       </c>
       <c r="I13" s="61">
         <f>E13*PenaltiesThresholds!B4+F13*PenaltiesThresholds!B5+G13*PenaltiesThresholds!B6+H13*PenaltiesThresholds!B7</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"fluencyKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"fluencyKudos")</f>
         <v>0</v>
       </c>
       <c r="K13" s="55"/>
@@ -10685,23 +11564,23 @@
         <v>82</v>
       </c>
       <c r="D14" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K104,"terminologyNeutral")+COUNTIFS( ReviewEnvironment!K3:K104,"terminologyMinor")+COUNTIFS( ReviewEnvironment!K3:K104,"terminologyMajor")+COUNTIFS( ReviewEnvironment!K3:K104,"terminologyCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"terminologyNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"terminologyMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"terminologyMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"terminologyCritical")</f>
         <v>0</v>
       </c>
       <c r="E14" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"terminologyNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"terminologyNeutral")</f>
         <v>0</v>
       </c>
       <c r="F14" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"terminologyMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"terminologyMinor")</f>
         <v>0</v>
       </c>
       <c r="G14" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"terminologyMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"terminologyMajor")</f>
         <v>0</v>
       </c>
       <c r="H14" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"terminologyCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"terminologyCritical")</f>
         <v>0</v>
       </c>
       <c r="I14" s="61">
@@ -10709,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"terminologyKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"terminologyKudos")</f>
         <v>0</v>
       </c>
       <c r="K14" s="55"/>
@@ -10729,23 +11608,23 @@
         <v>84</v>
       </c>
       <c r="D15" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K104,"styleNeutral")+COUNTIFS( ReviewEnvironment!K3:K104,"styleMinor")+COUNTIFS( ReviewEnvironment!K3:K104,"styleMajor")+COUNTIFS( ReviewEnvironment!K3:K104,"styleCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"styleNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"styleMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"styleMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"styleCritical")</f>
         <v>0</v>
       </c>
       <c r="E15" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"styleNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"styleNeutral")</f>
         <v>0</v>
       </c>
       <c r="F15" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"styleMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"styleMinor")</f>
         <v>0</v>
       </c>
       <c r="G15" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"styleMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"styleMajor")</f>
         <v>0</v>
       </c>
       <c r="H15" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"styleCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"styleCritical")</f>
         <v>0</v>
       </c>
       <c r="I15" s="61">
@@ -10753,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"styleKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"styleKudos")</f>
         <v>0</v>
       </c>
       <c r="K15" s="55"/>
@@ -10773,23 +11652,23 @@
         <v>157</v>
       </c>
       <c r="D16" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K104,"designNeutral")+COUNTIFS( ReviewEnvironment!K3:K104,"designMinor")+COUNTIFS( ReviewEnvironment!K3:K104,"designMajor")+COUNTIFS( ReviewEnvironment!K3:K104,"designCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"designNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"designMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"designMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"designCritical")</f>
         <v>0</v>
       </c>
       <c r="E16" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"designNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"designNeutral")</f>
         <v>0</v>
       </c>
       <c r="F16" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"designMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"designMinor")</f>
         <v>0</v>
       </c>
       <c r="G16" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"designMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"designMajor")</f>
         <v>0</v>
       </c>
       <c r="H16" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"designCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"designCritical")</f>
         <v>0</v>
       </c>
       <c r="I16" s="61">
@@ -10797,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"designKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"designKudos")</f>
         <v>0</v>
       </c>
       <c r="K16" s="55"/>
@@ -10817,23 +11696,23 @@
         <v>164</v>
       </c>
       <c r="D17" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K104,"locale conventionNeutral")+COUNTIFS( ReviewEnvironment!K3:K104,"locale conventionMinor")+COUNTIFS( ReviewEnvironment!K3:K104,"locale conventionMajor")+COUNTIFS( ReviewEnvironment!K3:K104,"locale conventionCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"locale conventionNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"locale conventionMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"locale conventionMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"locale conventionCritical")</f>
         <v>0</v>
       </c>
       <c r="E17" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"locale conventionNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"locale conventionNeutral")</f>
         <v>0</v>
       </c>
       <c r="F17" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"locale conventionMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"locale conventionMinor")</f>
         <v>0</v>
       </c>
       <c r="G17" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"locale conventionMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"locale conventionMajor")</f>
         <v>0</v>
       </c>
       <c r="H17" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"locale conventionCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"locale conventionCritical")</f>
         <v>0</v>
       </c>
       <c r="I17" s="61">
@@ -10841,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"locale conventionKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"locale conventionKudos")</f>
         <v>0</v>
       </c>
       <c r="K17" s="55"/>
@@ -10861,23 +11740,23 @@
         <v>172</v>
       </c>
       <c r="D18" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K104,"verityNeutral")+COUNTIFS( ReviewEnvironment!K3:K104,"verityMinor")+COUNTIFS( ReviewEnvironment!K3:K104,"verityMajor")+COUNTIFS( ReviewEnvironment!K3:K104,"verityCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"verityNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"verityMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"verityMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"verityCritical")</f>
         <v>0</v>
       </c>
       <c r="E18" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"verityNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"verityNeutral")</f>
         <v>0</v>
       </c>
       <c r="F18" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"verityMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"verityMinor")</f>
         <v>0</v>
       </c>
       <c r="G18" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"verityMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"verityMajor")</f>
         <v>0</v>
       </c>
       <c r="H18" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"verityCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"verityCritical")</f>
         <v>0</v>
       </c>
       <c r="I18" s="61">
@@ -10885,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"verityKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"verityKudos")</f>
         <v>0</v>
       </c>
       <c r="K18" s="55"/>
@@ -10905,23 +11784,23 @@
         <v>87</v>
       </c>
       <c r="D19" s="67">
-        <f>COUNTIFS( ReviewEnvironment!K3:K104,"otherNeutral")+COUNTIFS( ReviewEnvironment!K3:K104,"otherMinor")+COUNTIFS( ReviewEnvironment!K3:K104,"otherMajor")+COUNTIFS( ReviewEnvironment!K3:K104,"styleCritical")</f>
+        <f>COUNTIFS( ReviewEnvironment!K3:K109,"otherNeutral")+COUNTIFS( ReviewEnvironment!K3:K109,"otherMinor")+COUNTIFS( ReviewEnvironment!K3:K109,"otherMajor")+COUNTIFS( ReviewEnvironment!K3:K109,"styleCritical")</f>
         <v>0</v>
       </c>
       <c r="E19" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"otherNeutral")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"otherNeutral")</f>
         <v>0</v>
       </c>
       <c r="F19" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"otherMinor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"otherMinor")</f>
         <v>0</v>
       </c>
       <c r="G19" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"otherMajor")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"otherMajor")</f>
         <v>0</v>
       </c>
       <c r="H19" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"otherCritical")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"otherCritical")</f>
         <v>0</v>
       </c>
       <c r="I19" s="61">
@@ -10929,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="61">
-        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$104,"otherKudos")</f>
+        <f>COUNTIFS(ReviewEnvironment!$K$3:$K$109,"otherKudos")</f>
         <v>0</v>
       </c>
       <c r="K19" s="55"/>
@@ -10992,7 +11871,7 @@
       </c>
       <c r="D22" s="104">
         <f t="shared" ref="D22:J22" si="0">SUM(D12:D21)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E22" s="107">
         <f t="shared" si="0"/>
@@ -11000,11 +11879,11 @@
       </c>
       <c r="F22" s="107">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G22" s="107">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H22" s="108">
         <f t="shared" si="0"/>
@@ -11012,7 +11891,7 @@
       </c>
       <c r="I22" s="108">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="J22" s="108">
         <f t="shared" si="0"/>
@@ -11190,10 +12069,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="185"/>
+      <c r="B1" s="191"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="21"/>
@@ -11296,7 +12175,7 @@
     </row>
     <row r="4" spans="1:29" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="231" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="64"/>
@@ -11333,7 +12212,7 @@
     </row>
     <row r="5" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="59"/>
-      <c r="B5" s="226"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="64" t="s">
         <v>119</v>
       </c>
@@ -11370,7 +12249,7 @@
     </row>
     <row r="6" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="59"/>
-      <c r="B6" s="226"/>
+      <c r="B6" s="232"/>
       <c r="C6" s="64" t="s">
         <v>120</v>
       </c>
@@ -11407,7 +12286,7 @@
     </row>
     <row r="7" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="59"/>
-      <c r="B7" s="226"/>
+      <c r="B7" s="232"/>
       <c r="C7" s="64" t="s">
         <v>121</v>
       </c>
@@ -11444,7 +12323,7 @@
     </row>
     <row r="8" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="59"/>
-      <c r="B8" s="226"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="64" t="s">
         <v>122</v>
       </c>
@@ -11481,7 +12360,7 @@
     </row>
     <row r="9" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="59"/>
-      <c r="B9" s="226"/>
+      <c r="B9" s="232"/>
       <c r="C9" s="64" t="s">
         <v>123</v>
       </c>
@@ -11518,7 +12397,7 @@
     </row>
     <row r="10" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="59"/>
-      <c r="B10" s="226"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="64" t="s">
         <v>86</v>
       </c>
@@ -11555,7 +12434,7 @@
     </row>
     <row r="11" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A11" s="59"/>
-      <c r="B11" s="227"/>
+      <c r="B11" s="233"/>
       <c r="C11" s="64" t="s">
         <v>124</v>
       </c>
@@ -11594,7 +12473,7 @@
       <c r="A12" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="222" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="113"/>
@@ -11631,7 +12510,7 @@
     </row>
     <row r="13" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="59"/>
-      <c r="B13" s="223"/>
+      <c r="B13" s="229"/>
       <c r="C13" s="113" t="s">
         <v>140</v>
       </c>
@@ -11668,7 +12547,7 @@
     </row>
     <row r="14" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="59"/>
-      <c r="B14" s="223"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="113" t="s">
         <v>141</v>
       </c>
@@ -11705,7 +12584,7 @@
     </row>
     <row r="15" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="59"/>
-      <c r="B15" s="223"/>
+      <c r="B15" s="229"/>
       <c r="C15" s="113" t="s">
         <v>142</v>
       </c>
@@ -11742,7 +12621,7 @@
     </row>
     <row r="16" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="59"/>
-      <c r="B16" s="223"/>
+      <c r="B16" s="229"/>
       <c r="C16" s="113" t="s">
         <v>143</v>
       </c>
@@ -11779,7 +12658,7 @@
     </row>
     <row r="17" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="59"/>
-      <c r="B17" s="223"/>
+      <c r="B17" s="229"/>
       <c r="C17" s="113" t="s">
         <v>144</v>
       </c>
@@ -11816,7 +12695,7 @@
     </row>
     <row r="18" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="59"/>
-      <c r="B18" s="223"/>
+      <c r="B18" s="229"/>
       <c r="C18" s="113" t="s">
         <v>145</v>
       </c>
@@ -11853,7 +12732,7 @@
     </row>
     <row r="19" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="59"/>
-      <c r="B19" s="224"/>
+      <c r="B19" s="230"/>
       <c r="C19" s="113" t="s">
         <v>146</v>
       </c>
@@ -11890,7 +12769,7 @@
     </row>
     <row r="20" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="59"/>
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="228" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="64"/>
@@ -11927,7 +12806,7 @@
     </row>
     <row r="21" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="59"/>
-      <c r="B21" s="223"/>
+      <c r="B21" s="229"/>
       <c r="C21" s="113" t="s">
         <v>147</v>
       </c>
@@ -11964,7 +12843,7 @@
     </row>
     <row r="22" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="59"/>
-      <c r="B22" s="224"/>
+      <c r="B22" s="230"/>
       <c r="C22" s="113" t="s">
         <v>148</v>
       </c>
@@ -12001,7 +12880,7 @@
     </row>
     <row r="23" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="59"/>
-      <c r="B23" s="222" t="s">
+      <c r="B23" s="228" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="64"/>
@@ -12038,7 +12917,7 @@
     </row>
     <row r="24" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="59"/>
-      <c r="B24" s="223"/>
+      <c r="B24" s="229"/>
       <c r="C24" s="113" t="s">
         <v>152</v>
       </c>
@@ -12075,7 +12954,7 @@
     </row>
     <row r="25" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="59"/>
-      <c r="B25" s="223"/>
+      <c r="B25" s="229"/>
       <c r="C25" s="113" t="s">
         <v>153</v>
       </c>
@@ -12112,7 +12991,7 @@
     </row>
     <row r="26" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="59"/>
-      <c r="B26" s="223"/>
+      <c r="B26" s="229"/>
       <c r="C26" s="113" t="s">
         <v>154</v>
       </c>
@@ -12149,7 +13028,7 @@
     </row>
     <row r="27" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="59"/>
-      <c r="B27" s="223"/>
+      <c r="B27" s="229"/>
       <c r="C27" s="113" t="s">
         <v>155</v>
       </c>
@@ -12186,7 +13065,7 @@
     </row>
     <row r="28" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A28" s="59"/>
-      <c r="B28" s="224"/>
+      <c r="B28" s="230"/>
       <c r="C28" s="113" t="s">
         <v>156</v>
       </c>
@@ -12223,7 +13102,7 @@
     </row>
     <row r="29" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="59"/>
-      <c r="B29" s="216" t="s">
+      <c r="B29" s="222" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="113"/>
@@ -12260,7 +13139,7 @@
     </row>
     <row r="30" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="59"/>
-      <c r="B30" s="217"/>
+      <c r="B30" s="223"/>
       <c r="C30" s="113" t="s">
         <v>159</v>
       </c>
@@ -12297,7 +13176,7 @@
     </row>
     <row r="31" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="59"/>
-      <c r="B31" s="217"/>
+      <c r="B31" s="223"/>
       <c r="C31" s="113" t="s">
         <v>160</v>
       </c>
@@ -12334,7 +13213,7 @@
     </row>
     <row r="32" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="59"/>
-      <c r="B32" s="217"/>
+      <c r="B32" s="223"/>
       <c r="C32" s="113" t="s">
         <v>161</v>
       </c>
@@ -12371,7 +13250,7 @@
     </row>
     <row r="33" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="59"/>
-      <c r="B33" s="217"/>
+      <c r="B33" s="223"/>
       <c r="C33" s="113" t="s">
         <v>162</v>
       </c>
@@ -12408,7 +13287,7 @@
     </row>
     <row r="34" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="59"/>
-      <c r="B34" s="218"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="133" t="s">
         <v>163</v>
       </c>
@@ -12445,7 +13324,7 @@
     </row>
     <row r="35" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A35" s="59"/>
-      <c r="B35" s="219" t="s">
+      <c r="B35" s="225" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="113"/>
@@ -12482,7 +13361,7 @@
     </row>
     <row r="36" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="59"/>
-      <c r="B36" s="217"/>
+      <c r="B36" s="223"/>
       <c r="C36" s="113" t="s">
         <v>167</v>
       </c>
@@ -12519,7 +13398,7 @@
     </row>
     <row r="37" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="59"/>
-      <c r="B37" s="217"/>
+      <c r="B37" s="223"/>
       <c r="C37" s="113" t="s">
         <v>166</v>
       </c>
@@ -12556,7 +13435,7 @@
     </row>
     <row r="38" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A38" s="59"/>
-      <c r="B38" s="217"/>
+      <c r="B38" s="223"/>
       <c r="C38" s="113" t="s">
         <v>168</v>
       </c>
@@ -12593,7 +13472,7 @@
     </row>
     <row r="39" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="59"/>
-      <c r="B39" s="217"/>
+      <c r="B39" s="223"/>
       <c r="C39" s="113" t="s">
         <v>169</v>
       </c>
@@ -12630,7 +13509,7 @@
     </row>
     <row r="40" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A40" s="59"/>
-      <c r="B40" s="217"/>
+      <c r="B40" s="223"/>
       <c r="C40" s="133" t="s">
         <v>170</v>
       </c>
@@ -12667,7 +13546,7 @@
     </row>
     <row r="41" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="59"/>
-      <c r="B41" s="220"/>
+      <c r="B41" s="226"/>
       <c r="C41" s="133" t="s">
         <v>171</v>
       </c>
@@ -12704,7 +13583,7 @@
     </row>
     <row r="42" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="59"/>
-      <c r="B42" s="219" t="s">
+      <c r="B42" s="225" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="113"/>
@@ -12741,7 +13620,7 @@
     </row>
     <row r="43" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="59"/>
-      <c r="B43" s="220"/>
+      <c r="B43" s="226"/>
       <c r="C43" s="113" t="s">
         <v>173</v>
       </c>
@@ -13376,13 +14255,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="227" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13495,12 +14374,12 @@
       </c>
       <c r="E5" s="63"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="236" t="s">
+      <c r="G5" s="242" t="s">
         <v>289</v>
       </c>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="238"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="244"/>
       <c r="K5" s="62"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -13526,10 +14405,10 @@
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="232"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="231"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="237"/>
       <c r="K6" s="62"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -13555,10 +14434,10 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="231"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="237"/>
       <c r="K7" s="62"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -13579,10 +14458,10 @@
       <c r="D8" s="62"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
       <c r="K8" s="12"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -13603,12 +14482,12 @@
       <c r="D9" s="62"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="229" t="s">
+      <c r="G9" s="235" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="231"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
       <c r="K9" s="62"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -13626,10 +14505,10 @@
       <c r="D10" s="62"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="232"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="231"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="62"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -13648,18 +14527,18 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="234" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
       <c r="D11" s="62"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="241"/>
       <c r="K11" s="62"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
